--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="1003">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T21:09:05-04:00</t>
+    <t>2023-07-04T17:18:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1534,7 +1534,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -1586,6 +1586,9 @@
     <t>Esta extensión permite agregar un nombre social al paciente</t>
   </si>
   <si>
+    <t>element:Patient.name</t>
+  </si>
+  <si>
     <t>Nombre Social del Paciente</t>
   </si>
   <si>
@@ -1698,6 +1701,9 @@
   <si>
     <t xml:space="preserve">Extension {https://hlf.cl/fhir/ig/hackaton/StructureDefinition/IdentidadGenero}
 </t>
+  </si>
+  <si>
+    <t>Extensión para dato es de autoidentificación, por lo tanto, es una información que la persona entrega y el modelo de atención debe garantizar las condiciones y los mecanismos de privacidad y confidencialidad a través de un protocolo de aplicación local</t>
   </si>
   <si>
     <t>Patient.extension:IdGenero.id</t>
@@ -2683,10 +2689,6 @@
   </si>
   <si>
     <t xml:space="preserve">careProvider
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -3149,6 +3151,9 @@
   </si>
   <si>
     <t>https://hlf.cl/fhir/ig/hackaton/StructureDefinition/TipoVia</t>
+  </si>
+  <si>
+    <t>element:Patient.address</t>
   </si>
   <si>
     <t>Vías para direcciones</t>
@@ -3771,7 +3776,7 @@
         <v>478</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63">
@@ -3787,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65">
@@ -3795,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66">
@@ -3811,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68">
@@ -3863,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75">
@@ -3899,7 +3904,7 @@
         <v>27</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80">
@@ -3907,7 +3912,7 @@
         <v>29</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81">
@@ -3939,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="85">
@@ -3947,7 +3952,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="86">
@@ -3963,7 +3968,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="88">
@@ -4015,7 +4020,7 @@
         <v>19</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="95">
@@ -4051,7 +4056,7 @@
         <v>27</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="100">
@@ -4059,7 +4064,7 @@
         <v>29</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101">
@@ -4091,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105">
@@ -4099,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="106">
@@ -4115,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="108">
@@ -4123,7 +4128,7 @@
         <v>9</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="109">
@@ -4169,7 +4174,7 @@
         <v>19</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115">
@@ -4237,7 +4242,7 @@
         <v>478</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124">
@@ -4253,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="126">
@@ -4261,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127">
@@ -4277,7 +4282,7 @@
         <v>8</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="129">
@@ -4285,7 +4290,7 @@
         <v>9</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130">
@@ -4331,7 +4336,7 @@
         <v>19</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136">
@@ -4415,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="147">
@@ -4423,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="148">
@@ -4439,7 +4444,7 @@
         <v>8</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="150">
@@ -4447,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="151">
@@ -4493,7 +4498,7 @@
         <v>19</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="157">
@@ -4561,7 +4566,7 @@
         <v>478</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>479</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -17877,7 +17882,7 @@
         <v>153</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>489</v>
@@ -17948,17 +17953,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" t="s" s="2">
@@ -17980,10 +17985,10 @@
         <v>38</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -18034,7 +18039,7 @@
         <v>35</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>36</v>
@@ -18051,13 +18056,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -18156,13 +18161,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -18259,13 +18264,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18364,13 +18369,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18469,13 +18474,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18574,13 +18579,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18679,13 +18684,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18714,7 +18719,7 @@
         <v>476</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -18780,16 +18785,16 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E137" t="s" s="2">
         <v>35</v>
@@ -18811,13 +18816,13 @@
         <v>35</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -18885,13 +18890,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18988,13 +18993,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19091,13 +19096,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19123,7 +19128,7 @@
         <v>56</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>485</v>
@@ -19137,7 +19142,7 @@
       </c>
       <c r="R140" s="2"/>
       <c r="S140" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>35</v>
@@ -19196,13 +19201,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19228,7 +19233,7 @@
         <v>62</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>489</v>
@@ -19262,7 +19267,7 @@
       </c>
       <c r="Z141" s="2"/>
       <c r="AA141" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>35</v>
@@ -19297,16 +19302,16 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E142" t="s" s="2">
         <v>35</v>
@@ -19328,13 +19333,13 @@
         <v>35</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>473</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -19402,13 +19407,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19505,13 +19510,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19608,13 +19613,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19713,13 +19718,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19814,13 +19819,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19921,13 +19926,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19953,14 +19958,14 @@
         <v>100</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>35</v>
@@ -20009,7 +20014,7 @@
         <v>35</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>36</v>
@@ -20026,13 +20031,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20129,13 +20134,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20234,13 +20239,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20266,16 +20271,16 @@
         <v>62</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P151" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>35</v>
@@ -20285,7 +20290,7 @@
         <v>35</v>
       </c>
       <c r="T151" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="U151" t="s" s="2">
         <v>35</v>
@@ -20304,7 +20309,7 @@
       </c>
       <c r="Z151" s="2"/>
       <c r="AA151" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AB151" t="s" s="2">
         <v>35</v>
@@ -20322,7 +20327,7 @@
         <v>35</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>36</v>
@@ -20339,13 +20344,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20371,16 +20376,16 @@
         <v>110</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="P152" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q152" t="s" s="2">
         <v>35</v>
@@ -20408,10 +20413,10 @@
         <v>312</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>35</v>
@@ -20429,7 +20434,7 @@
         <v>35</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>36</v>
@@ -20446,13 +20451,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20478,16 +20483,16 @@
         <v>56</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P153" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Q153" t="s" s="2">
         <v>35</v>
@@ -20500,7 +20505,7 @@
         <v>35</v>
       </c>
       <c r="U153" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="V153" t="s" s="2">
         <v>35</v>
@@ -20536,7 +20541,7 @@
         <v>35</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>36</v>
@@ -20553,13 +20558,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20585,13 +20590,13 @@
         <v>153</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
@@ -20605,7 +20610,7 @@
         <v>35</v>
       </c>
       <c r="U154" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="V154" t="s" s="2">
         <v>35</v>
@@ -20641,7 +20646,7 @@
         <v>35</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>36</v>
@@ -20650,7 +20655,7 @@
         <v>42</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>54</v>
@@ -20658,13 +20663,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20690,10 +20695,10 @@
         <v>259</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -20744,7 +20749,7 @@
         <v>35</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>36</v>
@@ -20761,13 +20766,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20790,16 +20795,16 @@
         <v>43</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
@@ -20849,7 +20854,7 @@
         <v>35</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>36</v>
@@ -20866,13 +20871,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20898,67 +20903,67 @@
         <v>170</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N157" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O157" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="P157" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Q157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG157" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="Q157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>36</v>
@@ -20975,13 +20980,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21004,19 +21009,19 @@
         <v>43</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="P158" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q158" t="s" s="2">
         <v>35</v>
@@ -21065,7 +21070,7 @@
         <v>35</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>36</v>
@@ -21082,13 +21087,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21185,13 +21190,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21290,13 +21295,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>492</v>
@@ -21321,7 +21326,7 @@
         <v>35</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>494</v>
@@ -21395,16 +21400,16 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E162" t="s" s="2">
         <v>35</v>
@@ -21426,13 +21431,13 @@
         <v>35</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21500,13 +21505,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21532,16 +21537,16 @@
         <v>62</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P163" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="Q163" t="s" s="2">
         <v>35</v>
@@ -21569,10 +21574,10 @@
         <v>66</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>35</v>
@@ -21590,7 +21595,7 @@
         <v>35</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>36</v>
@@ -21607,13 +21612,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21639,16 +21644,16 @@
         <v>153</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="P164" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>35</v>
@@ -21697,7 +21702,7 @@
         <v>35</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>36</v>
@@ -21714,17 +21719,17 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" t="s" s="2">
@@ -21746,13 +21751,13 @@
         <v>153</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -21802,7 +21807,7 @@
         <v>35</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>36</v>
@@ -21819,17 +21824,17 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
@@ -21851,13 +21856,13 @@
         <v>153</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
@@ -21907,7 +21912,7 @@
         <v>35</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>36</v>
@@ -21924,13 +21929,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21956,10 +21961,10 @@
         <v>153</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -22010,7 +22015,7 @@
         <v>35</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>36</v>
@@ -22027,13 +22032,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22059,10 +22064,10 @@
         <v>153</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -22113,7 +22118,7 @@
         <v>35</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>36</v>
@@ -22130,13 +22135,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22162,14 +22167,14 @@
         <v>259</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="Q169" t="s" s="2">
         <v>35</v>
@@ -22218,7 +22223,7 @@
         <v>35</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>36</v>
@@ -22235,13 +22240,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22264,19 +22269,19 @@
         <v>43</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P170" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Q170" t="s" s="2">
         <v>35</v>
@@ -22325,7 +22330,7 @@
         <v>35</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>36</v>
@@ -22342,13 +22347,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22445,13 +22450,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22550,13 +22555,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22582,10 +22587,10 @@
         <v>62</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -22616,7 +22621,7 @@
       </c>
       <c r="Z173" s="2"/>
       <c r="AA173" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AB173" t="s" s="2">
         <v>35</v>
@@ -22634,7 +22639,7 @@
         <v>35</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>36</v>
@@ -22643,7 +22648,7 @@
         <v>42</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>54</v>
@@ -22651,13 +22656,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22683,16 +22688,16 @@
         <v>153</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P174" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Q174" t="s" s="2">
         <v>35</v>
@@ -22741,7 +22746,7 @@
         <v>35</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>36</v>
@@ -22750,7 +22755,7 @@
         <v>42</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>54</v>
@@ -22758,13 +22763,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22790,16 +22795,16 @@
         <v>62</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="P175" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="Q175" t="s" s="2">
         <v>35</v>
@@ -22827,10 +22832,10 @@
         <v>66</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AB175" t="s" s="2">
         <v>35</v>
@@ -22848,7 +22853,7 @@
         <v>35</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>36</v>
@@ -22865,13 +22870,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22897,13 +22902,13 @@
         <v>255</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
@@ -22953,7 +22958,7 @@
         <v>35</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>36</v>
@@ -22970,13 +22975,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23002,10 +23007,10 @@
         <v>259</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -23056,7 +23061,7 @@
         <v>35</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>36</v>
@@ -23073,13 +23078,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23105,16 +23110,16 @@
         <v>62</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P178" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q178" t="s" s="2">
         <v>35</v>
@@ -23142,10 +23147,10 @@
         <v>66</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AA178" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AB178" t="s" s="2">
         <v>35</v>
@@ -23163,7 +23168,7 @@
         <v>35</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>36</v>
@@ -23180,13 +23185,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23212,16 +23217,16 @@
         <v>393</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="P179" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Q179" t="s" s="2">
         <v>35</v>
@@ -23270,7 +23275,7 @@
         <v>35</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>36</v>
@@ -23287,13 +23292,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23316,19 +23321,19 @@
         <v>43</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="P180" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>35</v>
@@ -23377,7 +23382,7 @@
         <v>35</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>36</v>
@@ -23394,13 +23399,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -23423,19 +23428,19 @@
         <v>43</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="P181" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Q181" t="s" s="2">
         <v>35</v>
@@ -23484,7 +23489,7 @@
         <v>35</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>36</v>
@@ -23501,13 +23506,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23604,13 +23609,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23709,16 +23714,16 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E184" t="s" s="2">
         <v>35</v>
@@ -23740,13 +23745,13 @@
         <v>35</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -23814,13 +23819,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -23846,16 +23851,16 @@
         <v>62</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P185" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q185" t="s" s="2">
         <v>35</v>
@@ -23868,7 +23873,7 @@
         <v>35</v>
       </c>
       <c r="U185" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="V185" t="s" s="2">
         <v>35</v>
@@ -23883,10 +23888,10 @@
         <v>66</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>35</v>
@@ -23904,7 +23909,7 @@
         <v>35</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>36</v>
@@ -23921,13 +23926,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -23953,13 +23958,13 @@
         <v>62</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
@@ -23973,7 +23978,7 @@
         <v>35</v>
       </c>
       <c r="U186" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="V186" t="s" s="2">
         <v>35</v>
@@ -23988,10 +23993,10 @@
         <v>66</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AA186" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AB186" t="s" s="2">
         <v>35</v>
@@ -24009,7 +24014,7 @@
         <v>35</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>36</v>
@@ -24026,13 +24031,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24058,16 +24063,16 @@
         <v>153</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="P187" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q187" t="s" s="2">
         <v>35</v>
@@ -24080,7 +24085,7 @@
         <v>35</v>
       </c>
       <c r="U187" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="V187" t="s" s="2">
         <v>35</v>
@@ -24116,7 +24121,7 @@
         <v>35</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>36</v>
@@ -24133,13 +24138,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24165,10 +24170,10 @@
         <v>153</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -24183,7 +24188,7 @@
         <v>35</v>
       </c>
       <c r="U188" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="V188" t="s" s="2">
         <v>35</v>
@@ -24219,7 +24224,7 @@
         <v>35</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>36</v>
@@ -24236,17 +24241,17 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" t="s" s="2">
@@ -24268,10 +24273,10 @@
         <v>153</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
@@ -24286,7 +24291,7 @@
         <v>35</v>
       </c>
       <c r="U189" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="V189" t="s" s="2">
         <v>35</v>
@@ -24322,7 +24327,7 @@
         <v>35</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>36</v>
@@ -24339,17 +24344,17 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" t="s" s="2">
@@ -24371,13 +24376,13 @@
         <v>153</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
@@ -24391,7 +24396,7 @@
         <v>35</v>
       </c>
       <c r="U190" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="V190" t="s" s="2">
         <v>35</v>
@@ -24427,7 +24432,7 @@
         <v>35</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>36</v>
@@ -24444,17 +24449,17 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" t="s" s="2">
@@ -24476,10 +24481,10 @@
         <v>153</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -24530,7 +24535,7 @@
         <v>35</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>36</v>
@@ -24547,17 +24552,17 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
@@ -24579,10 +24584,10 @@
         <v>153</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -24597,7 +24602,7 @@
         <v>35</v>
       </c>
       <c r="U192" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="V192" t="s" s="2">
         <v>35</v>
@@ -24633,7 +24638,7 @@
         <v>35</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>36</v>
@@ -24650,13 +24655,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -24682,13 +24687,13 @@
         <v>153</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
@@ -24738,7 +24743,7 @@
         <v>35</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>36</v>
@@ -24755,13 +24760,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -24787,14 +24792,14 @@
         <v>259</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="Q194" t="s" s="2">
         <v>35</v>
@@ -24807,7 +24812,7 @@
         <v>35</v>
       </c>
       <c r="U194" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="V194" t="s" s="2">
         <v>35</v>
@@ -24843,7 +24848,7 @@
         <v>35</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>36</v>
@@ -24860,13 +24865,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -24892,14 +24897,14 @@
         <v>110</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="Q195" t="s" s="2">
         <v>35</v>
@@ -24927,10 +24932,10 @@
         <v>312</v>
       </c>
       <c r="Z195" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AA195" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AB195" t="s" s="2">
         <v>35</v>
@@ -24948,7 +24953,7 @@
         <v>35</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>36</v>
@@ -24965,13 +24970,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -24994,19 +24999,19 @@
         <v>35</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="P196" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="Q196" t="s" s="2">
         <v>35</v>
@@ -25055,7 +25060,7 @@
         <v>35</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>36</v>
@@ -25072,13 +25077,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25101,19 +25106,19 @@
         <v>35</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="P197" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>35</v>
@@ -25162,7 +25167,7 @@
         <v>35</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>36</v>
@@ -25179,13 +25184,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25211,16 +25216,16 @@
         <v>328</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="P198" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="Q198" t="s" s="2">
         <v>35</v>
@@ -25269,7 +25274,7 @@
         <v>35</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>36</v>
@@ -25281,18 +25286,18 @@
         <v>35</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25389,13 +25394,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25494,13 +25499,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25601,13 +25606,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25633,14 +25638,14 @@
         <v>110</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="Q202" t="s" s="2">
         <v>35</v>
@@ -25668,10 +25673,10 @@
         <v>312</v>
       </c>
       <c r="Z202" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AA202" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AB202" t="s" s="2">
         <v>35</v>
@@ -25689,7 +25694,7 @@
         <v>35</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>36</v>
@@ -25706,13 +25711,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25735,17 +25740,17 @@
         <v>35</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="Q203" t="s" s="2">
         <v>35</v>
@@ -25794,7 +25799,7 @@
         <v>35</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>36</v>
@@ -25803,7 +25808,7 @@
         <v>42</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>54</v>
@@ -25811,13 +25816,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -25840,19 +25845,19 @@
         <v>35</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="P204" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Q204" t="s" s="2">
         <v>35</v>
@@ -25901,7 +25906,7 @@
         <v>35</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>36</v>
@@ -25910,7 +25915,7 @@
         <v>37</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>54</v>
@@ -25918,13 +25923,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -25947,17 +25952,17 @@
         <v>35</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="Q205" t="s" s="2">
         <v>35</v>
@@ -26006,7 +26011,7 @@
         <v>35</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>36</v>
@@ -26015,7 +26020,7 @@
         <v>42</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>54</v>
@@ -26023,13 +26028,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26055,14 +26060,14 @@
         <v>62</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Q206" t="s" s="2">
         <v>35</v>
@@ -26090,10 +26095,10 @@
         <v>66</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AA206" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AB206" t="s" s="2">
         <v>35</v>
@@ -26111,7 +26116,7 @@
         <v>35</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>36</v>
@@ -26128,13 +26133,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26157,17 +26162,17 @@
         <v>35</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>35</v>
@@ -26216,7 +26221,7 @@
         <v>35</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>36</v>
@@ -26225,7 +26230,7 @@
         <v>42</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>54</v>
@@ -26233,13 +26238,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26265,10 +26270,10 @@
         <v>259</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
@@ -26319,7 +26324,7 @@
         <v>35</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>36</v>
@@ -26336,13 +26341,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26368,16 +26373,16 @@
         <v>328</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="P209" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="Q209" t="s" s="2">
         <v>35</v>
@@ -26426,7 +26431,7 @@
         <v>35</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>36</v>
@@ -26443,13 +26448,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26546,13 +26551,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26651,13 +26656,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -26758,13 +26763,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26790,16 +26795,16 @@
         <v>110</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="P213" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="Q213" t="s" s="2">
         <v>35</v>
@@ -26848,7 +26853,7 @@
         <v>35</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>42</v>
@@ -26865,13 +26870,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -26897,16 +26902,16 @@
         <v>170</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="P214" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="Q214" t="s" s="2">
         <v>35</v>
@@ -26955,7 +26960,7 @@
         <v>35</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>36</v>
@@ -26972,17 +26977,17 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
@@ -27001,16 +27006,16 @@
         <v>35</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>851</v>
+        <v>581</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
@@ -27060,7 +27065,7 @@
         <v>35</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>36</v>
@@ -27077,13 +27082,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27180,13 +27185,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27285,13 +27290,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27317,7 +27322,7 @@
         <v>153</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N218" t="s" s="2">
         <v>304</v>
@@ -27390,13 +27395,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27495,13 +27500,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27600,13 +27605,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -27632,7 +27637,7 @@
         <v>153</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>324</v>
@@ -27705,13 +27710,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -27734,19 +27739,19 @@
         <v>43</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="P222" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="Q222" t="s" s="2">
         <v>35</v>
@@ -27795,7 +27800,7 @@
         <v>35</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>36</v>
@@ -27812,13 +27817,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -27844,16 +27849,16 @@
         <v>328</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="P223" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Q223" t="s" s="2">
         <v>35</v>
@@ -27902,7 +27907,7 @@
         <v>35</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>36</v>
@@ -27919,13 +27924,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28022,13 +28027,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28127,13 +28132,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28234,13 +28239,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28263,16 +28268,16 @@
         <v>43</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
@@ -28322,7 +28327,7 @@
         <v>35</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>42</v>
@@ -28339,13 +28344,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28371,10 +28376,10 @@
         <v>62</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28404,10 +28409,10 @@
         <v>66</v>
       </c>
       <c r="Z228" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AA228" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AB228" t="s" s="2">
         <v>35</v>
@@ -28425,7 +28430,7 @@
         <v>35</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>42</v>
@@ -28442,13 +28447,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28474,10 +28479,10 @@
         <v>38</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28528,7 +28533,7 @@
         <v>35</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>36</v>
@@ -28545,13 +28550,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28650,13 +28655,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -28753,13 +28758,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -28858,13 +28863,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -28963,13 +28968,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29068,13 +29073,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29173,13 +29178,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29278,13 +29283,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29385,13 +29390,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29417,14 +29422,14 @@
         <v>100</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="Q238" t="s" s="2">
         <v>35</v>
@@ -29473,7 +29478,7 @@
         <v>35</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>36</v>
@@ -29490,13 +29495,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29593,13 +29598,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -29698,13 +29703,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -29730,16 +29735,16 @@
         <v>62</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P241" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q241" t="s" s="2">
         <v>35</v>
@@ -29749,7 +29754,7 @@
         <v>35</v>
       </c>
       <c r="T241" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="U241" t="s" s="2">
         <v>35</v>
@@ -29768,7 +29773,7 @@
       </c>
       <c r="Z241" s="2"/>
       <c r="AA241" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AB241" t="s" s="2">
         <v>35</v>
@@ -29786,7 +29791,7 @@
         <v>35</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>36</v>
@@ -29803,13 +29808,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -29835,16 +29840,16 @@
         <v>110</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="P242" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q242" t="s" s="2">
         <v>35</v>
@@ -29872,10 +29877,10 @@
         <v>312</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AB242" t="s" s="2">
         <v>35</v>
@@ -29893,7 +29898,7 @@
         <v>35</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>36</v>
@@ -29910,13 +29915,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -29942,16 +29947,16 @@
         <v>56</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P243" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Q243" t="s" s="2">
         <v>35</v>
@@ -29964,7 +29969,7 @@
         <v>35</v>
       </c>
       <c r="U243" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="V243" t="s" s="2">
         <v>35</v>
@@ -30000,7 +30005,7 @@
         <v>35</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>36</v>
@@ -30017,13 +30022,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -30049,13 +30054,13 @@
         <v>153</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
@@ -30069,7 +30074,7 @@
         <v>35</v>
       </c>
       <c r="U244" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="V244" t="s" s="2">
         <v>35</v>
@@ -30105,7 +30110,7 @@
         <v>35</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>36</v>
@@ -30114,7 +30119,7 @@
         <v>42</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AK244" t="s" s="2">
         <v>54</v>
@@ -30122,13 +30127,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -30154,10 +30159,10 @@
         <v>259</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
@@ -30208,7 +30213,7 @@
         <v>35</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>36</v>
@@ -30225,13 +30230,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -30254,16 +30259,16 @@
         <v>43</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -30313,7 +30318,7 @@
         <v>35</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>36</v>
@@ -30330,13 +30335,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30362,67 +30367,67 @@
         <v>170</v>
       </c>
       <c r="M247" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="O247" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="P247" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="Q247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="R247" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="S247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF247" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG247" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="O247" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="P247" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="Q247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="R247" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="S247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF247" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG247" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>36</v>
@@ -30439,13 +30444,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30468,19 +30473,19 @@
         <v>43</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="P248" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="Q248" t="s" s="2">
         <v>35</v>
@@ -30529,7 +30534,7 @@
         <v>35</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>36</v>
@@ -30546,13 +30551,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -30649,13 +30654,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30754,13 +30759,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30786,16 +30791,16 @@
         <v>62</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P251" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="Q251" t="s" s="2">
         <v>35</v>
@@ -30823,10 +30828,10 @@
         <v>66</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>35</v>
@@ -30844,7 +30849,7 @@
         <v>35</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>36</v>
@@ -30861,13 +30866,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -30893,16 +30898,16 @@
         <v>153</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O252" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="P252" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q252" t="s" s="2">
         <v>35</v>
@@ -30951,7 +30956,7 @@
         <v>35</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>36</v>
@@ -30968,17 +30973,17 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" t="s" s="2">
@@ -31000,13 +31005,13 @@
         <v>153</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O253" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
@@ -31056,7 +31061,7 @@
         <v>35</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>36</v>
@@ -31073,17 +31078,17 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
@@ -31105,13 +31110,13 @@
         <v>153</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -31161,7 +31166,7 @@
         <v>35</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>36</v>
@@ -31178,13 +31183,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31210,10 +31215,10 @@
         <v>153</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
@@ -31264,7 +31269,7 @@
         <v>35</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>36</v>
@@ -31281,13 +31286,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31313,10 +31318,10 @@
         <v>153</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
@@ -31367,7 +31372,7 @@
         <v>35</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>36</v>
@@ -31384,13 +31389,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31416,14 +31421,14 @@
         <v>259</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="Q257" t="s" s="2">
         <v>35</v>
@@ -31472,7 +31477,7 @@
         <v>35</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>36</v>
@@ -31489,13 +31494,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31518,19 +31523,19 @@
         <v>43</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O258" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="P258" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Q258" t="s" s="2">
         <v>35</v>
@@ -31579,7 +31584,7 @@
         <v>35</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>36</v>
@@ -31596,13 +31601,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -31628,14 +31633,14 @@
         <v>62</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="O259" s="2"/>
       <c r="P259" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Q259" t="s" s="2">
         <v>35</v>
@@ -31663,10 +31668,10 @@
         <v>66</v>
       </c>
       <c r="Z259" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AA259" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AB259" t="s" s="2">
         <v>35</v>
@@ -31684,7 +31689,7 @@
         <v>35</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>36</v>
@@ -31701,13 +31706,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -31733,14 +31738,14 @@
         <v>393</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="Q260" t="s" s="2">
         <v>35</v>
@@ -31789,7 +31794,7 @@
         <v>35</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>36</v>
@@ -31806,13 +31811,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -31835,16 +31840,16 @@
         <v>43</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="P261" s="2"/>
       <c r="Q261" t="s" s="2">
@@ -31894,7 +31899,7 @@
         <v>35</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>36</v>
@@ -31911,13 +31916,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -31940,19 +31945,19 @@
         <v>43</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="P262" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>35</v>
@@ -32001,7 +32006,7 @@
         <v>35</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>36</v>
@@ -32018,13 +32023,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32047,17 +32052,17 @@
         <v>35</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Q263" t="s" s="2">
         <v>35</v>
@@ -32106,7 +32111,7 @@
         <v>35</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>36</v>
@@ -32123,13 +32128,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32155,13 +32160,13 @@
         <v>328</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
@@ -32211,7 +32216,7 @@
         <v>35</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>36</v>
@@ -32228,13 +32233,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32331,13 +32336,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32436,13 +32441,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32543,13 +32548,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -32575,14 +32580,14 @@
         <v>100</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q268" t="s" s="2">
         <v>35</v>
@@ -32631,7 +32636,7 @@
         <v>35</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>36</v>
@@ -32648,13 +32653,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32680,10 +32685,10 @@
         <v>110</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -32713,10 +32718,10 @@
         <v>113</v>
       </c>
       <c r="Z269" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AA269" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AB269" t="s" s="2">
         <v>35</v>
@@ -32734,7 +32739,7 @@
         <v>35</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>42</v>
@@ -32751,13 +32756,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -32783,14 +32788,14 @@
         <v>259</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="O270" s="2"/>
       <c r="P270" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Q270" t="s" s="2">
         <v>35</v>
@@ -32839,7 +32844,7 @@
         <v>35</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>36</v>
@@ -32856,13 +32861,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -32885,13 +32890,13 @@
         <v>35</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
@@ -32942,7 +32947,7 @@
         <v>35</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>36</v>
@@ -32959,13 +32964,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -32991,13 +32996,13 @@
         <v>328</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O272" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
@@ -33047,7 +33052,7 @@
         <v>35</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>36</v>
@@ -33064,13 +33069,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33167,13 +33172,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -33272,13 +33277,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33379,13 +33384,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -33411,16 +33416,16 @@
         <v>110</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="O276" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="P276" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="Q276" t="s" s="2">
         <v>35</v>
@@ -33469,7 +33474,7 @@
         <v>35</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>42</v>
@@ -33486,13 +33491,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -33518,16 +33523,16 @@
         <v>170</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="O277" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="P277" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="Q277" t="s" s="2">
         <v>35</v>
@@ -33576,7 +33581,7 @@
         <v>35</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>36</v>
@@ -33593,7 +33598,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>476</v>
@@ -33625,10 +33630,10 @@
         <v>38</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
@@ -33696,7 +33701,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>480</v>
@@ -33799,7 +33804,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>481</v>
@@ -33902,7 +33907,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>483</v>
@@ -33948,7 +33953,7 @@
       </c>
       <c r="R281" s="2"/>
       <c r="S281" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="T281" t="s" s="2">
         <v>35</v>
@@ -34007,7 +34012,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>487</v>
@@ -34039,7 +34044,7 @@
         <v>153</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N282" t="s" s="2">
         <v>489</v>
@@ -34110,7 +34115,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>476</v>
@@ -34142,10 +34147,10 @@
         <v>38</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
@@ -34213,7 +34218,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>480</v>
@@ -34316,7 +34321,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>481</v>
@@ -34419,7 +34424,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>483</v>
@@ -34465,7 +34470,7 @@
       </c>
       <c r="R286" s="2"/>
       <c r="S286" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T286" t="s" s="2">
         <v>35</v>
@@ -34524,7 +34529,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>487</v>
@@ -34556,7 +34561,7 @@
         <v>62</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N287" t="s" s="2">
         <v>489</v>
@@ -34590,7 +34595,7 @@
       </c>
       <c r="Z287" s="2"/>
       <c r="AA287" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AB287" t="s" s="2">
         <v>35</v>
@@ -34625,7 +34630,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>476</v>
@@ -34657,10 +34662,10 @@
         <v>38</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
@@ -34728,7 +34733,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>480</v>
@@ -34831,7 +34836,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>481</v>
@@ -34934,7 +34939,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>483</v>
@@ -34980,7 +34985,7 @@
       </c>
       <c r="R291" s="2"/>
       <c r="S291" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="T291" t="s" s="2">
         <v>35</v>
@@ -35039,7 +35044,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>487</v>
@@ -35071,7 +35076,7 @@
         <v>62</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="N292" t="s" s="2">
         <v>489</v>
@@ -35105,7 +35110,7 @@
       </c>
       <c r="Z292" s="2"/>
       <c r="AA292" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="AB292" t="s" s="2">
         <v>35</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14325" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14325" uniqueCount="1419">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T16:02:56-04:00</t>
+    <t>2023-07-21T15:33:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3645,6 +3645,9 @@
   </si>
   <si>
     <t>Registro de Episodios de Hospitalización</t>
+  </si>
+  <si>
+    <t>draft</t>
   </si>
   <si>
     <t>Perfil del recurso Encounter para el registro de episodios hospitalizaciones de paciente</t>
@@ -5614,7 +5617,7 @@
         <v>10</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>11</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="130">
@@ -5652,7 +5655,7 @@
         <v>19</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="135">
@@ -5688,7 +5691,7 @@
         <v>27</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="140">
@@ -5696,7 +5699,7 @@
         <v>29</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="141">
@@ -5736,7 +5739,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="146">
@@ -5890,7 +5893,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="166">
@@ -5914,7 +5917,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="169">
@@ -6060,7 +6063,7 @@
         <v>4</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="188">
@@ -6198,7 +6201,7 @@
         <v>631</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -40455,14 +40458,14 @@
         <v>1150</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" t="s" s="2">
@@ -40484,10 +40487,10 @@
         <v>38</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
@@ -40538,7 +40541,7 @@
         <v>35</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>36</v>
@@ -40558,10 +40561,10 @@
         <v>1150</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -40663,10 +40666,10 @@
         <v>1150</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -40766,10 +40769,10 @@
         <v>1150</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -40871,10 +40874,10 @@
         <v>1150</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -40976,10 +40979,10 @@
         <v>1150</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -41081,10 +41084,10 @@
         <v>1150</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -41186,10 +41189,10 @@
         <v>1150</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -41291,10 +41294,10 @@
         <v>1150</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -41398,10 +41401,10 @@
         <v>1150</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -41427,10 +41430,10 @@
         <v>71</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
@@ -41481,7 +41484,7 @@
         <v>35</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>36</v>
@@ -41501,10 +41504,10 @@
         <v>1150</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -41530,13 +41533,13 @@
         <v>62</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -41547,7 +41550,7 @@
         <v>35</v>
       </c>
       <c r="T338" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="U338" t="s" s="2">
         <v>35</v>
@@ -41565,10 +41568,10 @@
         <v>66</v>
       </c>
       <c r="Z338" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="AA338" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="AB338" t="s" s="2">
         <v>35</v>
@@ -41586,7 +41589,7 @@
         <v>35</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>42</v>
@@ -41606,10 +41609,10 @@
         <v>1150</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -41635,10 +41638,10 @@
         <v>275</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
@@ -41669,7 +41672,7 @@
       </c>
       <c r="Z339" s="2"/>
       <c r="AA339" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="AB339" t="s" s="2">
         <v>35</v>
@@ -41687,7 +41690,7 @@
         <v>35</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>36</v>
@@ -41707,10 +41710,10 @@
         <v>1150</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -41810,10 +41813,10 @@
         <v>1150</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -41915,10 +41918,10 @@
         <v>1150</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -42022,10 +42025,10 @@
         <v>1150</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -42125,10 +42128,10 @@
         <v>1150</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -42230,10 +42233,10 @@
         <v>1150</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -42259,7 +42262,7 @@
         <v>56</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="N345" t="s" s="2">
         <v>308</v>
@@ -42278,7 +42281,7 @@
         <v>35</v>
       </c>
       <c r="T345" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="U345" t="s" s="2">
         <v>35</v>
@@ -42337,10 +42340,10 @@
         <v>1150</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -42442,10 +42445,10 @@
         <v>1150</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -42471,7 +42474,7 @@
         <v>62</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="N347" t="s" s="2">
         <v>319</v>
@@ -42547,10 +42550,10 @@
         <v>1150</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -42576,7 +42579,7 @@
         <v>101</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="N348" t="s" s="2">
         <v>325</v>
@@ -42593,7 +42596,7 @@
         <v>35</v>
       </c>
       <c r="T348" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="U348" t="s" s="2">
         <v>35</v>
@@ -42652,10 +42655,10 @@
         <v>1150</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -42759,10 +42762,10 @@
         <v>1150</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -42788,7 +42791,7 @@
         <v>101</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="N350" t="s" s="2">
         <v>337</v>
@@ -42866,10 +42869,10 @@
         <v>1150</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -42895,10 +42898,10 @@
         <v>275</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
@@ -42928,7 +42931,7 @@
         <v>278</v>
       </c>
       <c r="Z351" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="AA351" t="s" s="2">
         <v>379</v>
@@ -42949,7 +42952,7 @@
         <v>35</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>36</v>
@@ -42969,10 +42972,10 @@
         <v>1150</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -42998,13 +43001,13 @@
         <v>275</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
@@ -43033,10 +43036,10 @@
         <v>278</v>
       </c>
       <c r="Z352" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="AA352" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AB352" t="s" s="2">
         <v>35</v>
@@ -43054,7 +43057,7 @@
         <v>35</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>36</v>
@@ -43074,10 +43077,10 @@
         <v>1150</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -43103,10 +43106,10 @@
         <v>342</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
@@ -43136,7 +43139,7 @@
         <v>278</v>
       </c>
       <c r="Z353" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AA353" t="s" s="2">
         <v>346</v>
@@ -43157,7 +43160,7 @@
         <v>35</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>36</v>
@@ -43177,14 +43180,14 @@
         <v>1150</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" t="s" s="2">
@@ -43203,16 +43206,16 @@
         <v>43</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="O354" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="P354" s="2"/>
       <c r="Q354" t="s" s="2">
@@ -43262,7 +43265,7 @@
         <v>35</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>36</v>
@@ -43282,10 +43285,10 @@
         <v>1150</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -43311,13 +43314,13 @@
         <v>275</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="O355" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
@@ -43346,10 +43349,10 @@
         <v>278</v>
       </c>
       <c r="Z355" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="AA355" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AB355" t="s" s="2">
         <v>35</v>
@@ -43367,7 +43370,7 @@
         <v>35</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>36</v>
@@ -43387,10 +43390,10 @@
         <v>1150</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -43413,13 +43416,13 @@
         <v>43</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -43470,7 +43473,7 @@
         <v>35</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>36</v>
@@ -43490,10 +43493,10 @@
         <v>1150</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -43519,10 +43522,10 @@
         <v>451</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="O357" s="2"/>
       <c r="P357" s="2"/>
@@ -43573,7 +43576,7 @@
         <v>35</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>36</v>
@@ -43593,10 +43596,10 @@
         <v>1150</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -43619,13 +43622,13 @@
         <v>35</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
@@ -43676,7 +43679,7 @@
         <v>35</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>36</v>
@@ -43696,10 +43699,10 @@
         <v>1150</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -43722,16 +43725,16 @@
         <v>35</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="O359" t="s" s="2">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="P359" s="2"/>
       <c r="Q359" t="s" s="2">
@@ -43781,7 +43784,7 @@
         <v>35</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>36</v>
@@ -43801,10 +43804,10 @@
         <v>1150</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43830,10 +43833,10 @@
         <v>735</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
@@ -43884,7 +43887,7 @@
         <v>35</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>36</v>
@@ -43904,10 +43907,10 @@
         <v>1150</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -43933,13 +43936,13 @@
         <v>95</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="P361" s="2"/>
       <c r="Q361" t="s" s="2">
@@ -43989,7 +43992,7 @@
         <v>35</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>36</v>
@@ -44001,7 +44004,7 @@
         <v>35</v>
       </c>
       <c r="AK361" t="s" s="2">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="362">
@@ -44009,10 +44012,10 @@
         <v>1150</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -44112,10 +44115,10 @@
         <v>1150</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -44217,10 +44220,10 @@
         <v>1150</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -44324,10 +44327,10 @@
         <v>1150</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -44353,13 +44356,13 @@
         <v>275</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="N365" t="s" s="2">
         <v>496</v>
       </c>
       <c r="O365" t="s" s="2">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="P365" s="2"/>
       <c r="Q365" t="s" s="2">
@@ -44409,7 +44412,7 @@
         <v>35</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>36</v>
@@ -44418,7 +44421,7 @@
         <v>37</v>
       </c>
       <c r="AJ365" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="AK365" t="s" s="2">
         <v>54</v>
@@ -44429,10 +44432,10 @@
         <v>1150</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -44458,10 +44461,10 @@
         <v>417</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="O366" s="2"/>
       <c r="P366" s="2"/>
@@ -44512,7 +44515,7 @@
         <v>35</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>36</v>
@@ -44532,10 +44535,10 @@
         <v>1150</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -44558,16 +44561,16 @@
         <v>43</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="P367" s="2"/>
       <c r="Q367" t="s" s="2">
@@ -44617,7 +44620,7 @@
         <v>35</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>36</v>
@@ -44626,7 +44629,7 @@
         <v>42</v>
       </c>
       <c r="AJ367" t="s" s="2">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="AK367" t="s" s="2">
         <v>54</v>
@@ -44637,10 +44640,10 @@
         <v>1150</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -44666,10 +44669,10 @@
         <v>384</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="O368" s="2"/>
       <c r="P368" s="2"/>
@@ -44720,7 +44723,7 @@
         <v>35</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>36</v>
@@ -44740,10 +44743,10 @@
         <v>1150</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -44775,7 +44778,7 @@
         <v>390</v>
       </c>
       <c r="O369" t="s" s="2">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="P369" s="2"/>
       <c r="Q369" t="s" s="2">
@@ -44825,7 +44828,7 @@
         <v>35</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>36</v>
@@ -44845,10 +44848,10 @@
         <v>1150</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -44874,13 +44877,13 @@
         <v>417</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="O370" t="s" s="2">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="P370" s="2"/>
       <c r="Q370" t="s" s="2">
@@ -44930,7 +44933,7 @@
         <v>35</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>36</v>
@@ -44950,10 +44953,10 @@
         <v>1150</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -45053,10 +45056,10 @@
         <v>1150</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45158,10 +45161,10 @@
         <v>1150</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -45187,13 +45190,13 @@
         <v>431</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="P373" s="2"/>
       <c r="Q373" t="s" s="2">
@@ -45243,7 +45246,7 @@
         <v>35</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>36</v>
@@ -45252,7 +45255,7 @@
         <v>42</v>
       </c>
       <c r="AJ373" t="s" s="2">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AK373" t="s" s="2">
         <v>54</v>
@@ -45263,10 +45266,10 @@
         <v>1150</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -45292,20 +45295,20 @@
         <v>431</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="O374" t="s" s="2">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="P374" s="2"/>
       <c r="Q374" t="s" s="2">
         <v>35</v>
       </c>
       <c r="R374" t="s" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="S374" t="s" s="2">
         <v>35</v>
@@ -45350,7 +45353,7 @@
         <v>35</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>36</v>
@@ -45359,7 +45362,7 @@
         <v>42</v>
       </c>
       <c r="AJ374" t="s" s="2">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AK374" t="s" s="2">
         <v>54</v>
@@ -45370,10 +45373,10 @@
         <v>1150</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -45399,10 +45402,10 @@
         <v>431</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
@@ -45453,7 +45456,7 @@
         <v>35</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>36</v>
@@ -45473,10 +45476,10 @@
         <v>1150</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -45502,10 +45505,10 @@
         <v>431</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="O376" s="2"/>
       <c r="P376" s="2"/>
@@ -45556,7 +45559,7 @@
         <v>35</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>36</v>
@@ -45576,10 +45579,10 @@
         <v>1150</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -45602,16 +45605,16 @@
         <v>35</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="O377" t="s" s="2">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="P377" s="2"/>
       <c r="Q377" t="s" s="2">
@@ -45661,7 +45664,7 @@
         <v>35</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>36</v>
@@ -45681,10 +45684,10 @@
         <v>1150</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -45710,13 +45713,13 @@
         <v>95</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="O378" t="s" s="2">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="P378" s="2"/>
       <c r="Q378" t="s" s="2">
@@ -45766,7 +45769,7 @@
         <v>35</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>36</v>
@@ -45786,10 +45789,10 @@
         <v>1150</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45889,10 +45892,10 @@
         <v>1150</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -45994,10 +45997,10 @@
         <v>1150</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -46101,10 +46104,10 @@
         <v>1150</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -46130,10 +46133,10 @@
         <v>275</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="O382" s="2"/>
       <c r="P382" s="2"/>
@@ -46164,7 +46167,7 @@
       </c>
       <c r="Z382" s="2"/>
       <c r="AA382" t="s" s="2">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="AB382" t="s" s="2">
         <v>35</v>
@@ -46182,7 +46185,7 @@
         <v>35</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>36</v>
@@ -46202,14 +46205,14 @@
         <v>1150</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" t="s" s="2">
@@ -46228,13 +46231,13 @@
         <v>43</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" s="2"/>
@@ -46264,7 +46267,7 @@
         <v>284</v>
       </c>
       <c r="Z383" t="s" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="AA383" t="s" s="2">
         <v>373</v>
@@ -46285,7 +46288,7 @@
         <v>35</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>36</v>
@@ -46305,10 +46308,10 @@
         <v>1150</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -46334,13 +46337,13 @@
         <v>95</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="P384" s="2"/>
       <c r="Q384" t="s" s="2">
@@ -46390,7 +46393,7 @@
         <v>35</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>36</v>
@@ -46410,10 +46413,10 @@
         <v>1150</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -46513,10 +46516,10 @@
         <v>1150</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -46618,10 +46621,10 @@
         <v>1150</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46725,14 +46728,14 @@
         <v>1150</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" t="s" s="2">
@@ -46751,13 +46754,13 @@
         <v>43</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="N388" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="O388" s="2"/>
       <c r="P388" s="2"/>
@@ -46788,7 +46791,7 @@
       </c>
       <c r="Z388" s="2"/>
       <c r="AA388" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="AB388" t="s" s="2">
         <v>35</v>
@@ -46806,7 +46809,7 @@
         <v>35</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="AH388" t="s" s="2">
         <v>36</v>
@@ -46826,10 +46829,10 @@
         <v>1150</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -46855,10 +46858,10 @@
         <v>275</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="O389" s="2"/>
       <c r="P389" s="2"/>
@@ -46888,10 +46891,10 @@
         <v>284</v>
       </c>
       <c r="Z389" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="AA389" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AB389" t="s" s="2">
         <v>35</v>
@@ -46909,7 +46912,7 @@
         <v>35</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>36</v>
@@ -46929,10 +46932,10 @@
         <v>1150</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46958,13 +46961,13 @@
         <v>426</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="O390" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="P390" s="2"/>
       <c r="Q390" t="s" s="2">
@@ -47014,7 +47017,7 @@
         <v>35</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>36</v>
@@ -47034,10 +47037,10 @@
         <v>1150</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -47063,16 +47066,16 @@
         <v>275</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="O391" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="P391" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="Q391" t="s" s="2">
         <v>35</v>
@@ -47100,10 +47103,10 @@
         <v>278</v>
       </c>
       <c r="Z391" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AA391" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AB391" t="s" s="2">
         <v>35</v>
@@ -47121,7 +47124,7 @@
         <v>35</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>36</v>
@@ -47141,10 +47144,10 @@
         <v>1150</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -47170,10 +47173,10 @@
         <v>275</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
@@ -47203,10 +47206,10 @@
         <v>284</v>
       </c>
       <c r="Z392" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="AA392" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="AB392" t="s" s="2">
         <v>35</v>
@@ -47224,7 +47227,7 @@
         <v>35</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>36</v>
@@ -47244,10 +47247,10 @@
         <v>1150</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -47273,13 +47276,13 @@
         <v>275</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="O393" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="P393" s="2"/>
       <c r="Q393" t="s" s="2">
@@ -47308,10 +47311,10 @@
         <v>284</v>
       </c>
       <c r="Z393" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AA393" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="AB393" t="s" s="2">
         <v>35</v>
@@ -47329,7 +47332,7 @@
         <v>35</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>36</v>
@@ -47349,10 +47352,10 @@
         <v>1150</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -47378,13 +47381,13 @@
         <v>95</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="O394" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="P394" s="2"/>
       <c r="Q394" t="s" s="2">
@@ -47434,7 +47437,7 @@
         <v>35</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>36</v>
@@ -47454,10 +47457,10 @@
         <v>1150</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -47557,10 +47560,10 @@
         <v>1150</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -47662,10 +47665,10 @@
         <v>1150</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -47769,10 +47772,10 @@
         <v>1150</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -47798,10 +47801,10 @@
         <v>71</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
@@ -47852,7 +47855,7 @@
         <v>35</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>36</v>
@@ -47872,10 +47875,10 @@
         <v>1150</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -47898,13 +47901,13 @@
         <v>35</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
@@ -47955,7 +47958,7 @@
         <v>35</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>36</v>
@@ -47975,10 +47978,10 @@
         <v>1150</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -48004,10 +48007,10 @@
         <v>275</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="O400" s="2"/>
       <c r="P400" s="2"/>
@@ -48037,10 +48040,10 @@
         <v>284</v>
       </c>
       <c r="Z400" t="s" s="2">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AA400" t="s" s="2">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AB400" t="s" s="2">
         <v>35</v>
@@ -48058,7 +48061,7 @@
         <v>35</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>36</v>
@@ -48078,10 +48081,10 @@
         <v>1150</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -48107,10 +48110,10 @@
         <v>275</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
@@ -48140,10 +48143,10 @@
         <v>278</v>
       </c>
       <c r="Z401" t="s" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AA401" t="s" s="2">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="AB401" t="s" s="2">
         <v>35</v>
@@ -48161,7 +48164,7 @@
         <v>35</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>36</v>
@@ -48181,10 +48184,10 @@
         <v>1150</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -48207,13 +48210,13 @@
         <v>35</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
@@ -48264,7 +48267,7 @@
         <v>35</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>36</v>
@@ -48284,10 +48287,10 @@
         <v>1150</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -48313,10 +48316,10 @@
         <v>275</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="O403" s="2"/>
       <c r="P403" s="2"/>
@@ -48346,10 +48349,10 @@
         <v>278</v>
       </c>
       <c r="Z403" t="s" s="2">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="AA403" t="s" s="2">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AB403" t="s" s="2">
         <v>35</v>
@@ -48367,7 +48370,7 @@
         <v>35</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>36</v>
@@ -48387,10 +48390,10 @@
         <v>1150</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -48416,13 +48419,13 @@
         <v>95</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="O404" t="s" s="2">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="P404" s="2"/>
       <c r="Q404" t="s" s="2">
@@ -48472,7 +48475,7 @@
         <v>35</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>36</v>
@@ -48492,10 +48495,10 @@
         <v>1150</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -48595,10 +48598,10 @@
         <v>1150</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -48700,10 +48703,10 @@
         <v>1150</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48807,10 +48810,10 @@
         <v>1150</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -48833,13 +48836,13 @@
         <v>35</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
@@ -48890,7 +48893,7 @@
         <v>35</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>42</v>
@@ -48910,10 +48913,10 @@
         <v>1150</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -48939,13 +48942,13 @@
         <v>62</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="O409" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="P409" s="2"/>
       <c r="Q409" t="s" s="2">
@@ -48974,10 +48977,10 @@
         <v>66</v>
       </c>
       <c r="Z409" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AA409" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AB409" t="s" s="2">
         <v>35</v>
@@ -48995,7 +48998,7 @@
         <v>35</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>36</v>
@@ -49015,10 +49018,10 @@
         <v>1150</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -49044,13 +49047,13 @@
         <v>275</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="O410" t="s" s="2">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="P410" s="2"/>
       <c r="Q410" t="s" s="2">
@@ -49079,10 +49082,10 @@
         <v>278</v>
       </c>
       <c r="Z410" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="AA410" t="s" s="2">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AB410" t="s" s="2">
         <v>35</v>
@@ -49100,7 +49103,7 @@
         <v>35</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>36</v>
@@ -49120,10 +49123,10 @@
         <v>1150</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49149,10 +49152,10 @@
         <v>417</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
@@ -49203,7 +49206,7 @@
         <v>35</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>36</v>
@@ -49575,7 +49578,7 @@
       </c>
       <c r="R415" s="2"/>
       <c r="S415" t="s" s="2">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="T415" t="s" s="2">
         <v>35</v>
@@ -49666,7 +49669,7 @@
         <v>101</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="N416" t="s" s="2">
         <v>642</v>
@@ -49737,7 +49740,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>629</v>
@@ -49840,7 +49843,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>633</v>
@@ -49943,7 +49946,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>634</v>
@@ -50046,7 +50049,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>636</v>
@@ -50151,7 +50154,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>640</v>
@@ -50607,7 +50610,7 @@
       </c>
       <c r="R425" s="2"/>
       <c r="S425" t="s" s="2">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="T425" t="s" s="2">
         <v>35</v>
@@ -50698,7 +50701,7 @@
         <v>62</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="N426" t="s" s="2">
         <v>642</v>
@@ -50732,7 +50735,7 @@
       </c>
       <c r="Z426" s="2"/>
       <c r="AA426" t="s" s="2">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AB426" t="s" s="2">
         <v>35</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14325" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14325" uniqueCount="1418">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:33:08-04:00</t>
+    <t>2023-07-24T10:24:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2109,9 +2109,6 @@
   </si>
   <si>
     <t>Patient.id</t>
-  </si>
-  <si>
-    <t>Pac007</t>
   </si>
   <si>
     <t>Patient.meta</t>
@@ -5425,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="105">
@@ -5433,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="106">
@@ -5449,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="108">
@@ -5501,7 +5498,7 @@
         <v>19</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="115">
@@ -5537,7 +5534,7 @@
         <v>27</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="120">
@@ -5545,7 +5542,7 @@
         <v>29</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="121">
@@ -5577,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="125">
@@ -5585,7 +5582,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="126">
@@ -5601,7 +5598,7 @@
         <v>8</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="128">
@@ -5609,7 +5606,7 @@
         <v>9</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="129">
@@ -5617,7 +5614,7 @@
         <v>10</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="130">
@@ -5655,7 +5652,7 @@
         <v>19</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="135">
@@ -5691,7 +5688,7 @@
         <v>27</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="140">
@@ -5699,7 +5696,7 @@
         <v>29</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="141">
@@ -5731,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="145">
@@ -5739,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="146">
@@ -5755,7 +5752,7 @@
         <v>8</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="148">
@@ -5763,7 +5760,7 @@
         <v>9</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="149">
@@ -5809,7 +5806,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="155">
@@ -5893,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="166">
@@ -5901,7 +5898,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="167">
@@ -5917,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="169">
@@ -5925,7 +5922,7 @@
         <v>9</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="170">
@@ -5971,7 +5968,7 @@
         <v>19</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="176">
@@ -6055,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="187">
@@ -6063,7 +6060,7 @@
         <v>4</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="188">
@@ -6079,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="190">
@@ -6087,7 +6084,7 @@
         <v>9</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="191">
@@ -6133,7 +6130,7 @@
         <v>19</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="197">
@@ -6201,7 +6198,7 @@
         <v>631</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
   </sheetData>
@@ -24857,7 +24854,7 @@
         <v>35</v>
       </c>
       <c r="T179" t="s" s="2">
-        <v>660</v>
+        <v>35</v>
       </c>
       <c r="U179" t="s" s="2">
         <v>35</v>
@@ -24916,10 +24913,10 @@
         <v>651</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -25019,10 +25016,10 @@
         <v>651</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -25124,10 +25121,10 @@
         <v>651</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -25229,10 +25226,10 @@
         <v>651</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -25334,10 +25331,10 @@
         <v>651</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -25439,10 +25436,10 @@
         <v>651</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -25471,7 +25468,7 @@
         <v>629</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -25540,13 +25537,13 @@
         <v>651</v>
       </c>
       <c r="B186" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>35</v>
@@ -25568,13 +25565,13 @@
         <v>35</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -25645,10 +25642,10 @@
         <v>651</v>
       </c>
       <c r="B187" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="C187" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -25748,10 +25745,10 @@
         <v>651</v>
       </c>
       <c r="B188" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C188" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="C188" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -25851,10 +25848,10 @@
         <v>651</v>
       </c>
       <c r="B189" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="C189" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -25880,7 +25877,7 @@
         <v>56</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N189" t="s" s="2">
         <v>638</v>
@@ -25894,7 +25891,7 @@
       </c>
       <c r="R189" s="2"/>
       <c r="S189" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T189" t="s" s="2">
         <v>35</v>
@@ -25956,10 +25953,10 @@
         <v>651</v>
       </c>
       <c r="B190" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="C190" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -25985,7 +25982,7 @@
         <v>62</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>642</v>
@@ -26019,7 +26016,7 @@
       </c>
       <c r="Z190" s="2"/>
       <c r="AA190" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AB190" t="s" s="2">
         <v>35</v>
@@ -26057,13 +26054,13 @@
         <v>651</v>
       </c>
       <c r="B191" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="D191" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="C191" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="D191" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="E191" t="s" s="2">
         <v>35</v>
@@ -26085,13 +26082,13 @@
         <v>35</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>626</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -26162,10 +26159,10 @@
         <v>651</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -26265,10 +26262,10 @@
         <v>651</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -26368,10 +26365,10 @@
         <v>651</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -26473,10 +26470,10 @@
         <v>651</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -26574,10 +26571,10 @@
         <v>651</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -26681,10 +26678,10 @@
         <v>651</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -26710,14 +26707,14 @@
         <v>71</v>
       </c>
       <c r="M197" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="N197" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>35</v>
@@ -26766,7 +26763,7 @@
         <v>35</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>36</v>
@@ -26786,10 +26783,10 @@
         <v>651</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -26889,10 +26886,10 @@
         <v>651</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -26994,10 +26991,10 @@
         <v>651</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -27023,16 +27020,16 @@
         <v>62</v>
       </c>
       <c r="M200" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="N200" t="s" s="2">
+      <c r="O200" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="O200" t="s" s="2">
+      <c r="P200" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="P200" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>35</v>
@@ -27042,7 +27039,7 @@
         <v>35</v>
       </c>
       <c r="T200" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U200" t="s" s="2">
         <v>35</v>
@@ -27061,25 +27058,25 @@
       </c>
       <c r="Z200" s="2"/>
       <c r="AA200" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG200" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG200" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>36</v>
@@ -27099,10 +27096,10 @@
         <v>651</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -27128,16 +27125,16 @@
         <v>275</v>
       </c>
       <c r="M201" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N201" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="N201" t="s" s="2">
+      <c r="O201" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="O201" t="s" s="2">
+      <c r="P201" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="P201" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="Q201" t="s" s="2">
         <v>35</v>
@@ -27165,28 +27162,28 @@
         <v>470</v>
       </c>
       <c r="Z201" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AA201" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="AA201" t="s" s="2">
+      <c r="AB201" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG201" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>36</v>
@@ -27206,10 +27203,10 @@
         <v>651</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -27235,16 +27232,16 @@
         <v>56</v>
       </c>
       <c r="M202" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N202" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="N202" t="s" s="2">
+      <c r="O202" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="O202" t="s" s="2">
+      <c r="P202" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="P202" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="Q202" t="s" s="2">
         <v>35</v>
@@ -27257,43 +27254,43 @@
         <v>35</v>
       </c>
       <c r="U202" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG202" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>36</v>
@@ -27313,10 +27310,10 @@
         <v>651</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -27342,13 +27339,13 @@
         <v>101</v>
       </c>
       <c r="M203" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N203" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="N203" t="s" s="2">
+      <c r="O203" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -27362,52 +27359,52 @@
         <v>35</v>
       </c>
       <c r="U203" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG203" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="V203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG203" t="s" s="2">
+      <c r="AH203" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AH203" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI203" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ203" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>54</v>
@@ -27418,10 +27415,10 @@
         <v>651</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -27447,10 +27444,10 @@
         <v>417</v>
       </c>
       <c r="M204" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
@@ -27501,7 +27498,7 @@
         <v>35</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>36</v>
@@ -27521,10 +27518,10 @@
         <v>651</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -27547,16 +27544,16 @@
         <v>43</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="N205" t="s" s="2">
+      <c r="O205" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
@@ -27606,7 +27603,7 @@
         <v>35</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>36</v>
@@ -27626,10 +27623,10 @@
         <v>651</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -27655,23 +27652,23 @@
         <v>329</v>
       </c>
       <c r="M206" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="N206" t="s" s="2">
+      <c r="O206" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="O206" t="s" s="2">
+      <c r="P206" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="P206" t="s" s="2">
+      <c r="Q206" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="R206" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="Q206" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="R206" t="s" s="2">
-        <v>745</v>
-      </c>
       <c r="S206" t="s" s="2">
         <v>35</v>
       </c>
@@ -27715,7 +27712,7 @@
         <v>35</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>36</v>
@@ -27735,10 +27732,10 @@
         <v>651</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -27761,19 +27758,19 @@
         <v>43</v>
       </c>
       <c r="L207" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="N207" t="s" s="2">
+      <c r="O207" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="O207" t="s" s="2">
+      <c r="P207" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="P207" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>35</v>
@@ -27822,7 +27819,7 @@
         <v>35</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>36</v>
@@ -27842,10 +27839,10 @@
         <v>651</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -27945,10 +27942,10 @@
         <v>651</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -28050,10 +28047,10 @@
         <v>651</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>645</v>
@@ -28078,7 +28075,7 @@
         <v>35</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M210" t="s" s="2">
         <v>647</v>
@@ -28155,13 +28152,13 @@
         <v>651</v>
       </c>
       <c r="B211" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="D211" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="C211" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="D211" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="E211" t="s" s="2">
         <v>35</v>
@@ -28183,13 +28180,13 @@
         <v>35</v>
       </c>
       <c r="L211" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="M211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -28260,10 +28257,10 @@
         <v>651</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -28289,16 +28286,16 @@
         <v>62</v>
       </c>
       <c r="M212" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N212" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="N212" t="s" s="2">
+      <c r="O212" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="O212" t="s" s="2">
+      <c r="P212" t="s" s="2">
         <v>764</v>
-      </c>
-      <c r="P212" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="Q212" t="s" s="2">
         <v>35</v>
@@ -28326,28 +28323,28 @@
         <v>66</v>
       </c>
       <c r="Z212" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA212" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="AA212" t="s" s="2">
+      <c r="AB212" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG212" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="AB212" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC212" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD212" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE212" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF212" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG212" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>36</v>
@@ -28367,10 +28364,10 @@
         <v>651</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -28396,16 +28393,16 @@
         <v>101</v>
       </c>
       <c r="M213" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="N213" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="N213" t="s" s="2">
+      <c r="O213" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="O213" t="s" s="2">
+      <c r="P213" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="P213" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="Q213" t="s" s="2">
         <v>35</v>
@@ -28454,7 +28451,7 @@
         <v>35</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>36</v>
@@ -28474,14 +28471,14 @@
         <v>651</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
@@ -28503,13 +28500,13 @@
         <v>101</v>
       </c>
       <c r="M214" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="N214" t="s" s="2">
+      <c r="O214" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
@@ -28559,7 +28556,7 @@
         <v>35</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>36</v>
@@ -28579,14 +28576,14 @@
         <v>651</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
@@ -28608,13 +28605,13 @@
         <v>101</v>
       </c>
       <c r="M215" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="N215" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="N215" t="s" s="2">
+      <c r="O215" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
@@ -28664,7 +28661,7 @@
         <v>35</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>36</v>
@@ -28684,10 +28681,10 @@
         <v>651</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -28713,10 +28710,10 @@
         <v>101</v>
       </c>
       <c r="M216" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -28767,7 +28764,7 @@
         <v>35</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>36</v>
@@ -28787,10 +28784,10 @@
         <v>651</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -28816,10 +28813,10 @@
         <v>101</v>
       </c>
       <c r="M217" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="N217" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -28870,7 +28867,7 @@
         <v>35</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>36</v>
@@ -28890,10 +28887,10 @@
         <v>651</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -28919,14 +28916,14 @@
         <v>417</v>
       </c>
       <c r="M218" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q218" t="s" s="2">
         <v>35</v>
@@ -28975,7 +28972,7 @@
         <v>35</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>36</v>
@@ -28995,10 +28992,10 @@
         <v>651</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -29021,19 +29018,19 @@
         <v>43</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>801</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>802</v>
       </c>
-      <c r="N219" t="s" s="2">
+      <c r="O219" t="s" s="2">
         <v>803</v>
       </c>
-      <c r="O219" t="s" s="2">
+      <c r="P219" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="Q219" t="s" s="2">
         <v>35</v>
@@ -29082,7 +29079,7 @@
         <v>35</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>36</v>
@@ -29102,10 +29099,10 @@
         <v>651</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -29205,10 +29202,10 @@
         <v>651</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -29310,10 +29307,10 @@
         <v>651</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -29339,10 +29336,10 @@
         <v>62</v>
       </c>
       <c r="M222" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N222" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>810</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -29373,34 +29370,34 @@
       </c>
       <c r="Z222" s="2"/>
       <c r="AA222" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG222" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="AB222" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG222" t="s" s="2">
+      <c r="AH222" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="AH222" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI222" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ222" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>54</v>
@@ -29411,10 +29408,10 @@
         <v>651</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -29440,16 +29437,16 @@
         <v>101</v>
       </c>
       <c r="M223" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="N223" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="N223" t="s" s="2">
+      <c r="O223" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="O223" t="s" s="2">
+      <c r="P223" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="P223" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="Q223" t="s" s="2">
         <v>35</v>
@@ -29498,7 +29495,7 @@
         <v>35</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>36</v>
@@ -29507,7 +29504,7 @@
         <v>42</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>54</v>
@@ -29518,10 +29515,10 @@
         <v>651</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -29547,16 +29544,16 @@
         <v>62</v>
       </c>
       <c r="M224" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="N224" t="s" s="2">
+      <c r="O224" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="O224" t="s" s="2">
+      <c r="P224" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="P224" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>35</v>
@@ -29584,28 +29581,28 @@
         <v>66</v>
       </c>
       <c r="Z224" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AA224" t="s" s="2">
         <v>825</v>
       </c>
-      <c r="AA224" t="s" s="2">
+      <c r="AB224" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG224" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="AB224" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC224" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD224" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE224" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF224" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG224" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>36</v>
@@ -29625,10 +29622,10 @@
         <v>651</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -29654,13 +29651,13 @@
         <v>413</v>
       </c>
       <c r="M225" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N225" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="N225" t="s" s="2">
+      <c r="O225" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
@@ -29710,7 +29707,7 @@
         <v>35</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>36</v>
@@ -29730,10 +29727,10 @@
         <v>651</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -29759,10 +29756,10 @@
         <v>417</v>
       </c>
       <c r="M226" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="N226" t="s" s="2">
         <v>834</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
@@ -29813,7 +29810,7 @@
         <v>35</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>36</v>
@@ -29833,10 +29830,10 @@
         <v>651</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -29862,16 +29859,16 @@
         <v>62</v>
       </c>
       <c r="M227" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N227" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="N227" t="s" s="2">
+      <c r="O227" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="O227" t="s" s="2">
+      <c r="P227" t="s" s="2">
         <v>840</v>
-      </c>
-      <c r="P227" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="Q227" t="s" s="2">
         <v>35</v>
@@ -29899,11 +29896,11 @@
         <v>66</v>
       </c>
       <c r="Z227" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AA227" t="s" s="2">
         <v>842</v>
       </c>
-      <c r="AA227" t="s" s="2">
-        <v>843</v>
-      </c>
       <c r="AB227" t="s" s="2">
         <v>35</v>
       </c>
@@ -29920,7 +29917,7 @@
         <v>35</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>36</v>
@@ -29940,10 +29937,10 @@
         <v>651</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -29969,16 +29966,16 @@
         <v>546</v>
       </c>
       <c r="M228" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="N228" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="N228" t="s" s="2">
+      <c r="O228" t="s" s="2">
         <v>846</v>
       </c>
-      <c r="O228" t="s" s="2">
+      <c r="P228" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="Q228" t="s" s="2">
         <v>35</v>
@@ -30027,7 +30024,7 @@
         <v>35</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>36</v>
@@ -30047,10 +30044,10 @@
         <v>651</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -30073,19 +30070,19 @@
         <v>43</v>
       </c>
       <c r="L229" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="M229" t="s" s="2">
         <v>850</v>
       </c>
-      <c r="M229" t="s" s="2">
+      <c r="N229" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="N229" t="s" s="2">
+      <c r="O229" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="O229" t="s" s="2">
+      <c r="P229" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="Q229" t="s" s="2">
         <v>35</v>
@@ -30134,7 +30131,7 @@
         <v>35</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>36</v>
@@ -30154,10 +30151,10 @@
         <v>651</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -30180,19 +30177,19 @@
         <v>43</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>856</v>
       </c>
-      <c r="M230" t="s" s="2">
+      <c r="N230" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="N230" t="s" s="2">
+      <c r="O230" t="s" s="2">
         <v>858</v>
       </c>
-      <c r="O230" t="s" s="2">
+      <c r="P230" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="Q230" t="s" s="2">
         <v>35</v>
@@ -30241,7 +30238,7 @@
         <v>35</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>36</v>
@@ -30261,10 +30258,10 @@
         <v>651</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30364,10 +30361,10 @@
         <v>651</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30469,13 +30466,13 @@
         <v>651</v>
       </c>
       <c r="B233" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="D233" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="C233" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="D233" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="E233" t="s" s="2">
         <v>35</v>
@@ -30497,13 +30494,13 @@
         <v>35</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>865</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -30574,10 +30571,10 @@
         <v>651</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -30603,16 +30600,16 @@
         <v>62</v>
       </c>
       <c r="M234" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="N234" t="s" s="2">
         <v>869</v>
       </c>
-      <c r="N234" t="s" s="2">
+      <c r="O234" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="O234" t="s" s="2">
+      <c r="P234" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="P234" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="Q234" t="s" s="2">
         <v>35</v>
@@ -30625,7 +30622,7 @@
         <v>35</v>
       </c>
       <c r="U234" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="V234" t="s" s="2">
         <v>35</v>
@@ -30640,28 +30637,28 @@
         <v>66</v>
       </c>
       <c r="Z234" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="AA234" t="s" s="2">
         <v>874</v>
       </c>
-      <c r="AA234" t="s" s="2">
+      <c r="AB234" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG234" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>36</v>
@@ -30681,10 +30678,10 @@
         <v>651</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -30710,13 +30707,13 @@
         <v>62</v>
       </c>
       <c r="M235" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>878</v>
       </c>
-      <c r="N235" t="s" s="2">
+      <c r="O235" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
@@ -30730,7 +30727,7 @@
         <v>35</v>
       </c>
       <c r="U235" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="V235" t="s" s="2">
         <v>35</v>
@@ -30745,28 +30742,28 @@
         <v>66</v>
       </c>
       <c r="Z235" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="AA235" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="AA235" t="s" s="2">
+      <c r="AB235" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG235" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="AB235" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC235" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD235" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE235" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF235" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG235" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>36</v>
@@ -30786,10 +30783,10 @@
         <v>651</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -30815,16 +30812,16 @@
         <v>101</v>
       </c>
       <c r="M236" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="N236" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="N236" t="s" s="2">
+      <c r="O236" t="s" s="2">
         <v>887</v>
       </c>
-      <c r="O236" t="s" s="2">
-        <v>888</v>
-      </c>
       <c r="P236" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q236" t="s" s="2">
         <v>35</v>
@@ -30837,43 +30834,43 @@
         <v>35</v>
       </c>
       <c r="U236" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG236" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="V236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF236" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG236" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>36</v>
@@ -30893,10 +30890,10 @@
         <v>651</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30922,10 +30919,10 @@
         <v>101</v>
       </c>
       <c r="M237" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N237" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>893</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -30940,43 +30937,43 @@
         <v>35</v>
       </c>
       <c r="U237" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG237" t="s" s="2">
         <v>894</v>
-      </c>
-      <c r="V237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF237" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG237" t="s" s="2">
-        <v>895</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>36</v>
@@ -30996,14 +30993,14 @@
         <v>651</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" t="s" s="2">
@@ -31025,10 +31022,10 @@
         <v>101</v>
       </c>
       <c r="M238" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="N238" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>899</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
@@ -31043,43 +31040,43 @@
         <v>35</v>
       </c>
       <c r="U238" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG238" t="s" s="2">
         <v>900</v>
-      </c>
-      <c r="V238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF238" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG238" t="s" s="2">
-        <v>901</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>36</v>
@@ -31099,14 +31096,14 @@
         <v>651</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" t="s" s="2">
@@ -31128,13 +31125,13 @@
         <v>101</v>
       </c>
       <c r="M239" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="N239" t="s" s="2">
         <v>904</v>
       </c>
-      <c r="N239" t="s" s="2">
+      <c r="O239" t="s" s="2">
         <v>905</v>
-      </c>
-      <c r="O239" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="P239" s="2"/>
       <c r="Q239" t="s" s="2">
@@ -31148,43 +31145,43 @@
         <v>35</v>
       </c>
       <c r="U239" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG239" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="V239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF239" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG239" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>36</v>
@@ -31204,14 +31201,14 @@
         <v>651</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
@@ -31233,10 +31230,10 @@
         <v>101</v>
       </c>
       <c r="M240" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
@@ -31287,7 +31284,7 @@
         <v>35</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>36</v>
@@ -31307,14 +31304,14 @@
         <v>651</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
@@ -31336,10 +31333,10 @@
         <v>101</v>
       </c>
       <c r="M241" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="N241" t="s" s="2">
         <v>916</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
@@ -31354,43 +31351,43 @@
         <v>35</v>
       </c>
       <c r="U241" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG241" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF241" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG241" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>36</v>
@@ -31410,10 +31407,10 @@
         <v>651</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31439,13 +31436,13 @@
         <v>101</v>
       </c>
       <c r="M242" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="N242" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="N242" t="s" s="2">
+      <c r="O242" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="O242" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
@@ -31495,7 +31492,7 @@
         <v>35</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>36</v>
@@ -31515,10 +31512,10 @@
         <v>651</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31544,14 +31541,14 @@
         <v>417</v>
       </c>
       <c r="M243" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="N243" t="s" s="2">
         <v>926</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>927</v>
       </c>
       <c r="O243" s="2"/>
       <c r="P243" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q243" t="s" s="2">
         <v>35</v>
@@ -31564,43 +31561,43 @@
         <v>35</v>
       </c>
       <c r="U243" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG243" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="V243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF243" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG243" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>36</v>
@@ -31620,10 +31617,10 @@
         <v>651</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31649,14 +31646,14 @@
         <v>275</v>
       </c>
       <c r="M244" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="N244" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Q244" t="s" s="2">
         <v>35</v>
@@ -31684,11 +31681,11 @@
         <v>470</v>
       </c>
       <c r="Z244" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="AA244" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="AA244" t="s" s="2">
-        <v>936</v>
-      </c>
       <c r="AB244" t="s" s="2">
         <v>35</v>
       </c>
@@ -31705,7 +31702,7 @@
         <v>35</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>36</v>
@@ -31725,10 +31722,10 @@
         <v>651</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -31751,19 +31748,19 @@
         <v>35</v>
       </c>
       <c r="L245" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="M245" t="s" s="2">
         <v>938</v>
       </c>
-      <c r="M245" t="s" s="2">
+      <c r="N245" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="N245" t="s" s="2">
+      <c r="O245" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="O245" t="s" s="2">
+      <c r="P245" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="P245" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="Q245" t="s" s="2">
         <v>35</v>
@@ -31812,7 +31809,7 @@
         <v>35</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>36</v>
@@ -31832,10 +31829,10 @@
         <v>651</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31858,19 +31855,19 @@
         <v>35</v>
       </c>
       <c r="L246" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M246" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="M246" t="s" s="2">
+      <c r="N246" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="N246" t="s" s="2">
+      <c r="O246" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="O246" t="s" s="2">
+      <c r="P246" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="P246" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="Q246" t="s" s="2">
         <v>35</v>
@@ -31919,7 +31916,7 @@
         <v>35</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>36</v>
@@ -31939,10 +31936,10 @@
         <v>651</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31968,16 +31965,16 @@
         <v>95</v>
       </c>
       <c r="M247" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="N247" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="N247" t="s" s="2">
+      <c r="O247" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="O247" t="s" s="2">
+      <c r="P247" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="P247" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="Q247" t="s" s="2">
         <v>35</v>
@@ -32026,7 +32023,7 @@
         <v>35</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>36</v>
@@ -32038,7 +32035,7 @@
         <v>35</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="248">
@@ -32046,10 +32043,10 @@
         <v>651</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -32149,10 +32146,10 @@
         <v>651</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -32254,10 +32251,10 @@
         <v>651</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -32361,10 +32358,10 @@
         <v>651</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32390,14 +32387,14 @@
         <v>275</v>
       </c>
       <c r="M251" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="N251" t="s" s="2">
         <v>959</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Q251" t="s" s="2">
         <v>35</v>
@@ -32425,11 +32422,11 @@
         <v>470</v>
       </c>
       <c r="Z251" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="AA251" t="s" s="2">
         <v>962</v>
       </c>
-      <c r="AA251" t="s" s="2">
-        <v>963</v>
-      </c>
       <c r="AB251" t="s" s="2">
         <v>35</v>
       </c>
@@ -32446,7 +32443,7 @@
         <v>35</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>36</v>
@@ -32466,10 +32463,10 @@
         <v>651</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -32492,17 +32489,17 @@
         <v>35</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M252" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N252" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q252" t="s" s="2">
         <v>35</v>
@@ -32551,7 +32548,7 @@
         <v>35</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>36</v>
@@ -32560,7 +32557,7 @@
         <v>42</v>
       </c>
       <c r="AJ252" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AK252" t="s" s="2">
         <v>54</v>
@@ -32571,10 +32568,10 @@
         <v>651</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32597,19 +32594,19 @@
         <v>35</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M253" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="N253" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="N253" t="s" s="2">
+      <c r="O253" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="O253" t="s" s="2">
-        <v>972</v>
-      </c>
       <c r="P253" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Q253" t="s" s="2">
         <v>35</v>
@@ -32658,7 +32655,7 @@
         <v>35</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>36</v>
@@ -32667,7 +32664,7 @@
         <v>37</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AK253" t="s" s="2">
         <v>54</v>
@@ -32678,10 +32675,10 @@
         <v>651</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -32704,17 +32701,17 @@
         <v>35</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M254" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="N254" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="O254" s="2"/>
       <c r="P254" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q254" t="s" s="2">
         <v>35</v>
@@ -32763,7 +32760,7 @@
         <v>35</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>36</v>
@@ -32772,7 +32769,7 @@
         <v>42</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>54</v>
@@ -32783,10 +32780,10 @@
         <v>651</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32812,14 +32809,14 @@
         <v>62</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q255" t="s" s="2">
         <v>35</v>
@@ -32847,11 +32844,11 @@
         <v>66</v>
       </c>
       <c r="Z255" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AA255" t="s" s="2">
         <v>842</v>
       </c>
-      <c r="AA255" t="s" s="2">
-        <v>843</v>
-      </c>
       <c r="AB255" t="s" s="2">
         <v>35</v>
       </c>
@@ -32868,7 +32865,7 @@
         <v>35</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>36</v>
@@ -32888,10 +32885,10 @@
         <v>651</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -32914,17 +32911,17 @@
         <v>35</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M256" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N256" t="s" s="2">
         <v>981</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>982</v>
       </c>
       <c r="O256" s="2"/>
       <c r="P256" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q256" t="s" s="2">
         <v>35</v>
@@ -32973,7 +32970,7 @@
         <v>35</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>36</v>
@@ -32982,7 +32979,7 @@
         <v>42</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AK256" t="s" s="2">
         <v>54</v>
@@ -32993,10 +32990,10 @@
         <v>651</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -33022,10 +33019,10 @@
         <v>417</v>
       </c>
       <c r="M257" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="N257" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>986</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
@@ -33076,7 +33073,7 @@
         <v>35</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>36</v>
@@ -33096,10 +33093,10 @@
         <v>651</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -33125,16 +33122,16 @@
         <v>95</v>
       </c>
       <c r="M258" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="N258" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="N258" t="s" s="2">
+      <c r="O258" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="O258" t="s" s="2">
+      <c r="P258" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="P258" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="Q258" t="s" s="2">
         <v>35</v>
@@ -33183,7 +33180,7 @@
         <v>35</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>36</v>
@@ -33203,10 +33200,10 @@
         <v>651</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -33306,10 +33303,10 @@
         <v>651</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33411,10 +33408,10 @@
         <v>651</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -33518,10 +33515,10 @@
         <v>651</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -33547,16 +33544,16 @@
         <v>275</v>
       </c>
       <c r="M262" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="N262" t="s" s="2">
         <v>996</v>
       </c>
-      <c r="N262" t="s" s="2">
+      <c r="O262" t="s" s="2">
         <v>997</v>
       </c>
-      <c r="O262" t="s" s="2">
+      <c r="P262" t="s" s="2">
         <v>998</v>
-      </c>
-      <c r="P262" t="s" s="2">
-        <v>999</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>35</v>
@@ -33605,7 +33602,7 @@
         <v>35</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>42</v>
@@ -33625,10 +33622,10 @@
         <v>651</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33654,16 +33651,16 @@
         <v>329</v>
       </c>
       <c r="M263" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N263" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="N263" t="s" s="2">
+      <c r="O263" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="O263" t="s" s="2">
+      <c r="P263" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="P263" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="Q263" t="s" s="2">
         <v>35</v>
@@ -33712,7 +33709,7 @@
         <v>35</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>36</v>
@@ -33732,14 +33729,14 @@
         <v>651</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" t="s" s="2">
@@ -33758,16 +33755,16 @@
         <v>35</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M264" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="N264" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="N264" t="s" s="2">
+      <c r="O264" t="s" s="2">
         <v>1008</v>
-      </c>
-      <c r="O264" t="s" s="2">
-        <v>1009</v>
       </c>
       <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
@@ -33817,7 +33814,7 @@
         <v>35</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>36</v>
@@ -33837,10 +33834,10 @@
         <v>651</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33940,10 +33937,10 @@
         <v>651</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -34045,10 +34042,10 @@
         <v>651</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -34074,7 +34071,7 @@
         <v>101</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N267" t="s" s="2">
         <v>462</v>
@@ -34150,10 +34147,10 @@
         <v>651</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -34255,10 +34252,10 @@
         <v>651</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -34360,10 +34357,10 @@
         <v>651</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -34389,7 +34386,7 @@
         <v>101</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="N270" t="s" s="2">
         <v>482</v>
@@ -34465,10 +34462,10 @@
         <v>651</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -34491,19 +34488,19 @@
         <v>43</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M271" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N271" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="N271" t="s" s="2">
+      <c r="O271" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="O271" t="s" s="2">
+      <c r="P271" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="P271" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="Q271" t="s" s="2">
         <v>35</v>
@@ -34552,7 +34549,7 @@
         <v>35</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>36</v>
@@ -34572,10 +34569,10 @@
         <v>651</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -34601,16 +34598,16 @@
         <v>95</v>
       </c>
       <c r="M272" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="N272" t="s" s="2">
         <v>1024</v>
       </c>
-      <c r="N272" t="s" s="2">
+      <c r="O272" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="O272" t="s" s="2">
+      <c r="P272" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="P272" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="Q272" t="s" s="2">
         <v>35</v>
@@ -34659,7 +34656,7 @@
         <v>35</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>36</v>
@@ -34679,10 +34676,10 @@
         <v>651</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -34782,10 +34779,10 @@
         <v>651</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -34887,10 +34884,10 @@
         <v>651</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -34994,10 +34991,10 @@
         <v>651</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -35020,16 +35017,16 @@
         <v>43</v>
       </c>
       <c r="L276" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="M276" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="M276" t="s" s="2">
+      <c r="N276" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="O276" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="O276" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
@@ -35079,7 +35076,7 @@
         <v>35</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>42</v>
@@ -35099,10 +35096,10 @@
         <v>651</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -35128,10 +35125,10 @@
         <v>62</v>
       </c>
       <c r="M277" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="N277" t="s" s="2">
         <v>1036</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>1037</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -35161,11 +35158,11 @@
         <v>66</v>
       </c>
       <c r="Z277" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="AA277" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="AA277" t="s" s="2">
-        <v>1039</v>
-      </c>
       <c r="AB277" t="s" s="2">
         <v>35</v>
       </c>
@@ -35182,7 +35179,7 @@
         <v>35</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>42</v>
@@ -35199,13 +35196,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -35231,10 +35228,10 @@
         <v>38</v>
       </c>
       <c r="M278" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="N278" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
@@ -35285,7 +35282,7 @@
         <v>35</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>36</v>
@@ -35302,13 +35299,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -35407,13 +35404,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -35510,13 +35507,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35615,13 +35612,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -35720,13 +35717,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -35825,13 +35822,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -35930,13 +35927,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -36035,13 +36032,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -36142,13 +36139,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -36174,14 +36171,14 @@
         <v>71</v>
       </c>
       <c r="M287" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N287" t="s" s="2">
         <v>1056</v>
-      </c>
-      <c r="N287" t="s" s="2">
-        <v>1057</v>
       </c>
       <c r="O287" s="2"/>
       <c r="P287" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Q287" t="s" s="2">
         <v>35</v>
@@ -36230,7 +36227,7 @@
         <v>35</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>36</v>
@@ -36247,13 +36244,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -36350,13 +36347,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -36455,13 +36452,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -36487,16 +36484,16 @@
         <v>62</v>
       </c>
       <c r="M290" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="N290" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="N290" t="s" s="2">
+      <c r="O290" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="O290" t="s" s="2">
+      <c r="P290" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="P290" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="Q290" t="s" s="2">
         <v>35</v>
@@ -36506,7 +36503,7 @@
         <v>35</v>
       </c>
       <c r="T290" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U290" t="s" s="2">
         <v>35</v>
@@ -36525,25 +36522,25 @@
       </c>
       <c r="Z290" s="2"/>
       <c r="AA290" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AB290" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC290" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD290" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE290" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF290" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG290" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="AB290" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC290" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD290" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE290" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF290" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG290" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>36</v>
@@ -36560,13 +36557,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36592,16 +36589,16 @@
         <v>275</v>
       </c>
       <c r="M291" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N291" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="N291" t="s" s="2">
+      <c r="O291" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="O291" t="s" s="2">
+      <c r="P291" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="P291" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="Q291" t="s" s="2">
         <v>35</v>
@@ -36629,28 +36626,28 @@
         <v>470</v>
       </c>
       <c r="Z291" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AA291" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="AA291" t="s" s="2">
+      <c r="AB291" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC291" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD291" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE291" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF291" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG291" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="AB291" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC291" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD291" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE291" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF291" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG291" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>36</v>
@@ -36667,13 +36664,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36699,16 +36696,16 @@
         <v>56</v>
       </c>
       <c r="M292" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N292" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="N292" t="s" s="2">
+      <c r="O292" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="O292" t="s" s="2">
+      <c r="P292" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="P292" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="Q292" t="s" s="2">
         <v>35</v>
@@ -36721,43 +36718,43 @@
         <v>35</v>
       </c>
       <c r="U292" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="V292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG292" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="V292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF292" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG292" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>36</v>
@@ -36774,13 +36771,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36806,13 +36803,13 @@
         <v>101</v>
       </c>
       <c r="M293" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N293" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="N293" t="s" s="2">
+      <c r="O293" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="O293" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
@@ -36826,52 +36823,52 @@
         <v>35</v>
       </c>
       <c r="U293" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="V293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG293" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="V293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF293" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG293" t="s" s="2">
+      <c r="AH293" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI293" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ293" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="AH293" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI293" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ293" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="AK293" t="s" s="2">
         <v>54</v>
@@ -36879,13 +36876,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36911,10 +36908,10 @@
         <v>417</v>
       </c>
       <c r="M294" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="N294" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
@@ -36965,7 +36962,7 @@
         <v>35</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>36</v>
@@ -36982,13 +36979,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -37011,16 +37008,16 @@
         <v>43</v>
       </c>
       <c r="L295" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M295" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M295" t="s" s="2">
+      <c r="N295" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="N295" t="s" s="2">
+      <c r="O295" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="O295" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -37070,7 +37067,7 @@
         <v>35</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>36</v>
@@ -37087,13 +37084,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -37119,22 +37116,22 @@
         <v>329</v>
       </c>
       <c r="M296" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="N296" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="N296" t="s" s="2">
+      <c r="O296" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="O296" t="s" s="2">
+      <c r="P296" t="s" s="2">
         <v>1070</v>
       </c>
-      <c r="P296" t="s" s="2">
-        <v>1071</v>
-      </c>
       <c r="Q296" t="s" s="2">
         <v>35</v>
       </c>
       <c r="R296" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S296" t="s" s="2">
         <v>35</v>
@@ -37179,7 +37176,7 @@
         <v>35</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>36</v>
@@ -37196,13 +37193,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -37225,19 +37222,19 @@
         <v>43</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M297" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="N297" t="s" s="2">
         <v>1073</v>
       </c>
-      <c r="N297" t="s" s="2">
+      <c r="O297" t="s" s="2">
         <v>1074</v>
       </c>
-      <c r="O297" t="s" s="2">
+      <c r="P297" t="s" s="2">
         <v>1075</v>
-      </c>
-      <c r="P297" t="s" s="2">
-        <v>1076</v>
       </c>
       <c r="Q297" t="s" s="2">
         <v>35</v>
@@ -37286,7 +37283,7 @@
         <v>35</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>36</v>
@@ -37303,13 +37300,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37406,13 +37403,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -37511,16 +37508,16 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E300" t="s" s="2">
         <v>35</v>
@@ -37542,13 +37539,13 @@
         <v>35</v>
       </c>
       <c r="L300" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M300" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="M300" t="s" s="2">
+      <c r="N300" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
@@ -37616,13 +37613,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -37648,16 +37645,16 @@
         <v>62</v>
       </c>
       <c r="M301" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N301" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="N301" t="s" s="2">
+      <c r="O301" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="O301" t="s" s="2">
+      <c r="P301" t="s" s="2">
         <v>764</v>
-      </c>
-      <c r="P301" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="Q301" t="s" s="2">
         <v>35</v>
@@ -37685,28 +37682,28 @@
         <v>66</v>
       </c>
       <c r="Z301" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA301" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="AA301" t="s" s="2">
+      <c r="AB301" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC301" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD301" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE301" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF301" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG301" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="AB301" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC301" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD301" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE301" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF301" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG301" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>36</v>
@@ -37723,13 +37720,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37755,16 +37752,16 @@
         <v>101</v>
       </c>
       <c r="M302" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="N302" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="N302" t="s" s="2">
+      <c r="O302" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="O302" t="s" s="2">
+      <c r="P302" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="P302" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="Q302" t="s" s="2">
         <v>35</v>
@@ -37813,7 +37810,7 @@
         <v>35</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>36</v>
@@ -37830,17 +37827,17 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
@@ -37862,13 +37859,13 @@
         <v>101</v>
       </c>
       <c r="M303" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="N303" t="s" s="2">
         <v>1083</v>
       </c>
-      <c r="N303" t="s" s="2">
-        <v>1084</v>
-      </c>
       <c r="O303" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37918,7 +37915,7 @@
         <v>35</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>36</v>
@@ -37935,17 +37932,17 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
@@ -37967,13 +37964,13 @@
         <v>101</v>
       </c>
       <c r="M304" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="N304" t="s" s="2">
         <v>1086</v>
       </c>
-      <c r="N304" t="s" s="2">
-        <v>1087</v>
-      </c>
       <c r="O304" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P304" s="2"/>
       <c r="Q304" t="s" s="2">
@@ -38023,7 +38020,7 @@
         <v>35</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>36</v>
@@ -38040,13 +38037,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -38072,10 +38069,10 @@
         <v>101</v>
       </c>
       <c r="M305" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N305" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
@@ -38126,7 +38123,7 @@
         <v>35</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>36</v>
@@ -38143,13 +38140,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -38175,10 +38172,10 @@
         <v>101</v>
       </c>
       <c r="M306" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="N306" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
@@ -38229,7 +38226,7 @@
         <v>35</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>36</v>
@@ -38246,13 +38243,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -38278,14 +38275,14 @@
         <v>417</v>
       </c>
       <c r="M307" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N307" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N307" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O307" s="2"/>
       <c r="P307" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q307" t="s" s="2">
         <v>35</v>
@@ -38334,7 +38331,7 @@
         <v>35</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>36</v>
@@ -38351,13 +38348,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -38380,19 +38377,19 @@
         <v>43</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M308" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="N308" t="s" s="2">
         <v>1092</v>
       </c>
-      <c r="N308" t="s" s="2">
+      <c r="O308" t="s" s="2">
         <v>1093</v>
       </c>
-      <c r="O308" t="s" s="2">
+      <c r="P308" t="s" s="2">
         <v>1094</v>
-      </c>
-      <c r="P308" t="s" s="2">
-        <v>1095</v>
       </c>
       <c r="Q308" t="s" s="2">
         <v>35</v>
@@ -38441,7 +38438,7 @@
         <v>35</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>36</v>
@@ -38458,13 +38455,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -38490,14 +38487,14 @@
         <v>62</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O309" s="2"/>
       <c r="P309" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q309" t="s" s="2">
         <v>35</v>
@@ -38525,11 +38522,11 @@
         <v>66</v>
       </c>
       <c r="Z309" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AA309" t="s" s="2">
         <v>842</v>
       </c>
-      <c r="AA309" t="s" s="2">
-        <v>843</v>
-      </c>
       <c r="AB309" t="s" s="2">
         <v>35</v>
       </c>
@@ -38546,7 +38543,7 @@
         <v>35</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>36</v>
@@ -38563,13 +38560,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38595,14 +38592,14 @@
         <v>546</v>
       </c>
       <c r="M310" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="N310" t="s" s="2">
         <v>1099</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>1100</v>
       </c>
       <c r="O310" s="2"/>
       <c r="P310" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>35</v>
@@ -38651,7 +38648,7 @@
         <v>35</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>36</v>
@@ -38668,13 +38665,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -38697,16 +38694,16 @@
         <v>43</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M311" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="N311" t="s" s="2">
         <v>1103</v>
       </c>
-      <c r="N311" t="s" s="2">
+      <c r="O311" t="s" s="2">
         <v>1104</v>
-      </c>
-      <c r="O311" t="s" s="2">
-        <v>1105</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
@@ -38756,7 +38753,7 @@
         <v>35</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>36</v>
@@ -38773,13 +38770,13 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -38802,19 +38799,19 @@
         <v>43</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M312" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="N312" t="s" s="2">
         <v>1107</v>
       </c>
-      <c r="N312" t="s" s="2">
+      <c r="O312" t="s" s="2">
         <v>1108</v>
       </c>
-      <c r="O312" t="s" s="2">
+      <c r="P312" t="s" s="2">
         <v>1109</v>
-      </c>
-      <c r="P312" t="s" s="2">
-        <v>1110</v>
       </c>
       <c r="Q312" t="s" s="2">
         <v>35</v>
@@ -38863,7 +38860,7 @@
         <v>35</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>36</v>
@@ -38880,13 +38877,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38909,17 +38906,17 @@
         <v>35</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M313" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="N313" t="s" s="2">
         <v>1112</v>
-      </c>
-      <c r="N313" t="s" s="2">
-        <v>1113</v>
       </c>
       <c r="O313" s="2"/>
       <c r="P313" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q313" t="s" s="2">
         <v>35</v>
@@ -38968,7 +38965,7 @@
         <v>35</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>36</v>
@@ -38985,13 +38982,13 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -39017,13 +39014,13 @@
         <v>95</v>
       </c>
       <c r="M314" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="N314" t="s" s="2">
         <v>1116</v>
       </c>
-      <c r="N314" t="s" s="2">
+      <c r="O314" t="s" s="2">
         <v>1117</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>1118</v>
       </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
@@ -39073,7 +39070,7 @@
         <v>35</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>36</v>
@@ -39090,13 +39087,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -39193,13 +39190,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -39298,13 +39295,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -39405,13 +39402,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -39437,14 +39434,14 @@
         <v>71</v>
       </c>
       <c r="M318" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="N318" t="s" s="2">
         <v>1123</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>1124</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Q318" t="s" s="2">
         <v>35</v>
@@ -39493,7 +39490,7 @@
         <v>35</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>36</v>
@@ -39510,13 +39507,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -39542,10 +39539,10 @@
         <v>275</v>
       </c>
       <c r="M319" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="N319" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>1128</v>
       </c>
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
@@ -39575,11 +39572,11 @@
         <v>278</v>
       </c>
       <c r="Z319" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="AA319" t="s" s="2">
         <v>1129</v>
       </c>
-      <c r="AA319" t="s" s="2">
-        <v>1130</v>
-      </c>
       <c r="AB319" t="s" s="2">
         <v>35</v>
       </c>
@@ -39596,7 +39593,7 @@
         <v>35</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>42</v>
@@ -39613,13 +39610,13 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -39645,14 +39642,14 @@
         <v>417</v>
       </c>
       <c r="M320" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="N320" t="s" s="2">
         <v>1132</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>1133</v>
       </c>
       <c r="O320" s="2"/>
       <c r="P320" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Q320" t="s" s="2">
         <v>35</v>
@@ -39701,7 +39698,7 @@
         <v>35</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>36</v>
@@ -39718,13 +39715,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39747,13 +39744,13 @@
         <v>35</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M321" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="N321" t="s" s="2">
         <v>1136</v>
-      </c>
-      <c r="N321" t="s" s="2">
-        <v>1137</v>
       </c>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
@@ -39804,7 +39801,7 @@
         <v>35</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>36</v>
@@ -39821,13 +39818,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -39853,13 +39850,13 @@
         <v>95</v>
       </c>
       <c r="M322" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="N322" t="s" s="2">
         <v>1139</v>
       </c>
-      <c r="N322" t="s" s="2">
+      <c r="O322" t="s" s="2">
         <v>1140</v>
-      </c>
-      <c r="O322" t="s" s="2">
-        <v>1141</v>
       </c>
       <c r="P322" s="2"/>
       <c r="Q322" t="s" s="2">
@@ -39909,7 +39906,7 @@
         <v>35</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>36</v>
@@ -39926,13 +39923,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -40029,13 +40026,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -40134,13 +40131,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -40241,13 +40238,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -40273,16 +40270,16 @@
         <v>275</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N326" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="O326" t="s" s="2">
         <v>997</v>
       </c>
-      <c r="O326" t="s" s="2">
+      <c r="P326" t="s" s="2">
         <v>998</v>
-      </c>
-      <c r="P326" t="s" s="2">
-        <v>999</v>
       </c>
       <c r="Q326" t="s" s="2">
         <v>35</v>
@@ -40331,7 +40328,7 @@
         <v>35</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>42</v>
@@ -40348,13 +40345,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -40380,16 +40377,16 @@
         <v>329</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N327" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="O327" t="s" s="2">
         <v>1148</v>
       </c>
-      <c r="O327" t="s" s="2">
-        <v>1149</v>
-      </c>
       <c r="P327" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="Q327" t="s" s="2">
         <v>35</v>
@@ -40438,7 +40435,7 @@
         <v>35</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>36</v>
@@ -40455,17 +40452,17 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" t="s" s="2">
@@ -40487,10 +40484,10 @@
         <v>38</v>
       </c>
       <c r="M328" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="N328" t="s" s="2">
         <v>1159</v>
-      </c>
-      <c r="N328" t="s" s="2">
-        <v>1160</v>
       </c>
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
@@ -40541,7 +40538,7 @@
         <v>35</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>36</v>
@@ -40558,13 +40555,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -40663,13 +40660,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -40766,13 +40763,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -40871,13 +40868,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -40976,13 +40973,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -41081,13 +41078,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -41186,13 +41183,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -41291,13 +41288,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -41398,13 +41395,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -41430,10 +41427,10 @@
         <v>71</v>
       </c>
       <c r="M337" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="N337" t="s" s="2">
         <v>1170</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>1171</v>
       </c>
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
@@ -41484,7 +41481,7 @@
         <v>35</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>36</v>
@@ -41501,13 +41498,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -41533,13 +41530,13 @@
         <v>62</v>
       </c>
       <c r="M338" t="s" s="2">
+        <v>1172</v>
+      </c>
+      <c r="N338" t="s" s="2">
         <v>1173</v>
       </c>
-      <c r="N338" t="s" s="2">
+      <c r="O338" t="s" s="2">
         <v>1174</v>
-      </c>
-      <c r="O338" t="s" s="2">
-        <v>1175</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -41550,7 +41547,7 @@
         <v>35</v>
       </c>
       <c r="T338" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="U338" t="s" s="2">
         <v>35</v>
@@ -41568,11 +41565,11 @@
         <v>66</v>
       </c>
       <c r="Z338" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="AA338" t="s" s="2">
         <v>1177</v>
       </c>
-      <c r="AA338" t="s" s="2">
-        <v>1178</v>
-      </c>
       <c r="AB338" t="s" s="2">
         <v>35</v>
       </c>
@@ -41589,7 +41586,7 @@
         <v>35</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>42</v>
@@ -41606,13 +41603,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -41638,10 +41635,10 @@
         <v>275</v>
       </c>
       <c r="M339" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="N339" t="s" s="2">
         <v>1180</v>
-      </c>
-      <c r="N339" t="s" s="2">
-        <v>1181</v>
       </c>
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
@@ -41672,7 +41669,7 @@
       </c>
       <c r="Z339" s="2"/>
       <c r="AA339" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AB339" t="s" s="2">
         <v>35</v>
@@ -41690,7 +41687,7 @@
         <v>35</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>36</v>
@@ -41707,13 +41704,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -41810,13 +41807,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -41915,13 +41912,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -42022,13 +42019,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -42125,13 +42122,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -42230,13 +42227,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -42262,7 +42259,7 @@
         <v>56</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="N345" t="s" s="2">
         <v>308</v>
@@ -42281,7 +42278,7 @@
         <v>35</v>
       </c>
       <c r="T345" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="U345" t="s" s="2">
         <v>35</v>
@@ -42337,13 +42334,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -42442,13 +42439,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -42474,7 +42471,7 @@
         <v>62</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="N347" t="s" s="2">
         <v>319</v>
@@ -42547,13 +42544,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -42579,7 +42576,7 @@
         <v>101</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="N348" t="s" s="2">
         <v>325</v>
@@ -42596,7 +42593,7 @@
         <v>35</v>
       </c>
       <c r="T348" t="s" s="2">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="U348" t="s" s="2">
         <v>35</v>
@@ -42652,13 +42649,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -42759,13 +42756,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -42791,7 +42788,7 @@
         <v>101</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="N350" t="s" s="2">
         <v>337</v>
@@ -42866,13 +42863,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -42898,10 +42895,10 @@
         <v>275</v>
       </c>
       <c r="M351" t="s" s="2">
+        <v>1200</v>
+      </c>
+      <c r="N351" t="s" s="2">
         <v>1201</v>
-      </c>
-      <c r="N351" t="s" s="2">
-        <v>1202</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
@@ -42931,7 +42928,7 @@
         <v>278</v>
       </c>
       <c r="Z351" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AA351" t="s" s="2">
         <v>379</v>
@@ -42952,7 +42949,7 @@
         <v>35</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>36</v>
@@ -42969,13 +42966,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -43001,13 +42998,13 @@
         <v>275</v>
       </c>
       <c r="M352" t="s" s="2">
+        <v>1203</v>
+      </c>
+      <c r="N352" t="s" s="2">
         <v>1204</v>
       </c>
-      <c r="N352" t="s" s="2">
+      <c r="O352" t="s" s="2">
         <v>1205</v>
-      </c>
-      <c r="O352" t="s" s="2">
-        <v>1206</v>
       </c>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
@@ -43036,11 +43033,11 @@
         <v>278</v>
       </c>
       <c r="Z352" t="s" s="2">
+        <v>1206</v>
+      </c>
+      <c r="AA352" t="s" s="2">
         <v>1207</v>
       </c>
-      <c r="AA352" t="s" s="2">
-        <v>1208</v>
-      </c>
       <c r="AB352" t="s" s="2">
         <v>35</v>
       </c>
@@ -43057,7 +43054,7 @@
         <v>35</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>36</v>
@@ -43074,13 +43071,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -43106,10 +43103,10 @@
         <v>342</v>
       </c>
       <c r="M353" t="s" s="2">
+        <v>1209</v>
+      </c>
+      <c r="N353" t="s" s="2">
         <v>1210</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>1211</v>
       </c>
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
@@ -43139,7 +43136,7 @@
         <v>278</v>
       </c>
       <c r="Z353" t="s" s="2">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AA353" t="s" s="2">
         <v>346</v>
@@ -43160,7 +43157,7 @@
         <v>35</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>36</v>
@@ -43177,17 +43174,17 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" t="s" s="2">
@@ -43206,16 +43203,16 @@
         <v>43</v>
       </c>
       <c r="L354" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="M354" t="s" s="2">
         <v>1215</v>
       </c>
-      <c r="M354" t="s" s="2">
+      <c r="N354" t="s" s="2">
+        <v>1215</v>
+      </c>
+      <c r="O354" t="s" s="2">
         <v>1216</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>1216</v>
-      </c>
-      <c r="O354" t="s" s="2">
-        <v>1217</v>
       </c>
       <c r="P354" s="2"/>
       <c r="Q354" t="s" s="2">
@@ -43265,7 +43262,7 @@
         <v>35</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>36</v>
@@ -43282,13 +43279,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -43314,13 +43311,13 @@
         <v>275</v>
       </c>
       <c r="M355" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="N355" t="s" s="2">
         <v>1219</v>
       </c>
-      <c r="N355" t="s" s="2">
+      <c r="O355" t="s" s="2">
         <v>1220</v>
-      </c>
-      <c r="O355" t="s" s="2">
-        <v>1221</v>
       </c>
       <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
@@ -43349,11 +43346,11 @@
         <v>278</v>
       </c>
       <c r="Z355" t="s" s="2">
+        <v>1221</v>
+      </c>
+      <c r="AA355" t="s" s="2">
         <v>1222</v>
       </c>
-      <c r="AA355" t="s" s="2">
-        <v>1223</v>
-      </c>
       <c r="AB355" t="s" s="2">
         <v>35</v>
       </c>
@@ -43370,7 +43367,7 @@
         <v>35</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>36</v>
@@ -43387,13 +43384,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -43416,13 +43413,13 @@
         <v>43</v>
       </c>
       <c r="L356" t="s" s="2">
+        <v>1224</v>
+      </c>
+      <c r="M356" t="s" s="2">
         <v>1225</v>
       </c>
-      <c r="M356" t="s" s="2">
+      <c r="N356" t="s" s="2">
         <v>1226</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>1227</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -43473,7 +43470,7 @@
         <v>35</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>36</v>
@@ -43490,13 +43487,13 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -43522,10 +43519,10 @@
         <v>451</v>
       </c>
       <c r="M357" t="s" s="2">
+        <v>1228</v>
+      </c>
+      <c r="N357" t="s" s="2">
         <v>1229</v>
-      </c>
-      <c r="N357" t="s" s="2">
-        <v>1230</v>
       </c>
       <c r="O357" s="2"/>
       <c r="P357" s="2"/>
@@ -43576,7 +43573,7 @@
         <v>35</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>36</v>
@@ -43593,13 +43590,13 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -43622,13 +43619,13 @@
         <v>35</v>
       </c>
       <c r="L358" t="s" s="2">
+        <v>1231</v>
+      </c>
+      <c r="M358" t="s" s="2">
         <v>1232</v>
       </c>
-      <c r="M358" t="s" s="2">
+      <c r="N358" t="s" s="2">
         <v>1233</v>
-      </c>
-      <c r="N358" t="s" s="2">
-        <v>1234</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
@@ -43679,7 +43676,7 @@
         <v>35</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>36</v>
@@ -43696,13 +43693,13 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -43725,16 +43722,16 @@
         <v>35</v>
       </c>
       <c r="L359" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="M359" t="s" s="2">
         <v>1236</v>
       </c>
-      <c r="M359" t="s" s="2">
+      <c r="N359" t="s" s="2">
         <v>1237</v>
       </c>
-      <c r="N359" t="s" s="2">
+      <c r="O359" t="s" s="2">
         <v>1238</v>
-      </c>
-      <c r="O359" t="s" s="2">
-        <v>1239</v>
       </c>
       <c r="P359" s="2"/>
       <c r="Q359" t="s" s="2">
@@ -43784,7 +43781,7 @@
         <v>35</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>36</v>
@@ -43801,13 +43798,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43830,13 +43827,13 @@
         <v>35</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M360" t="s" s="2">
+        <v>1240</v>
+      </c>
+      <c r="N360" t="s" s="2">
         <v>1241</v>
-      </c>
-      <c r="N360" t="s" s="2">
-        <v>1242</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
@@ -43887,7 +43884,7 @@
         <v>35</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>36</v>
@@ -43904,13 +43901,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -43936,13 +43933,13 @@
         <v>95</v>
       </c>
       <c r="M361" t="s" s="2">
+        <v>1243</v>
+      </c>
+      <c r="N361" t="s" s="2">
         <v>1244</v>
       </c>
-      <c r="N361" t="s" s="2">
+      <c r="O361" t="s" s="2">
         <v>1245</v>
-      </c>
-      <c r="O361" t="s" s="2">
-        <v>1246</v>
       </c>
       <c r="P361" s="2"/>
       <c r="Q361" t="s" s="2">
@@ -43992,7 +43989,7 @@
         <v>35</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>36</v>
@@ -44004,18 +44001,18 @@
         <v>35</v>
       </c>
       <c r="AK361" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -44112,13 +44109,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -44217,13 +44214,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -44324,13 +44321,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -44356,13 +44353,13 @@
         <v>275</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="N365" t="s" s="2">
         <v>496</v>
       </c>
       <c r="O365" t="s" s="2">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="P365" s="2"/>
       <c r="Q365" t="s" s="2">
@@ -44412,7 +44409,7 @@
         <v>35</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>36</v>
@@ -44421,7 +44418,7 @@
         <v>37</v>
       </c>
       <c r="AJ365" t="s" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AK365" t="s" s="2">
         <v>54</v>
@@ -44429,13 +44426,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -44461,10 +44458,10 @@
         <v>417</v>
       </c>
       <c r="M366" t="s" s="2">
+        <v>1255</v>
+      </c>
+      <c r="N366" t="s" s="2">
         <v>1256</v>
-      </c>
-      <c r="N366" t="s" s="2">
-        <v>1257</v>
       </c>
       <c r="O366" s="2"/>
       <c r="P366" s="2"/>
@@ -44515,7 +44512,7 @@
         <v>35</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>36</v>
@@ -44532,13 +44529,13 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -44561,16 +44558,16 @@
         <v>43</v>
       </c>
       <c r="L367" t="s" s="2">
+        <v>1258</v>
+      </c>
+      <c r="M367" t="s" s="2">
         <v>1259</v>
       </c>
-      <c r="M367" t="s" s="2">
+      <c r="N367" t="s" s="2">
         <v>1260</v>
       </c>
-      <c r="N367" t="s" s="2">
+      <c r="O367" t="s" s="2">
         <v>1261</v>
-      </c>
-      <c r="O367" t="s" s="2">
-        <v>1262</v>
       </c>
       <c r="P367" s="2"/>
       <c r="Q367" t="s" s="2">
@@ -44620,7 +44617,7 @@
         <v>35</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>36</v>
@@ -44629,7 +44626,7 @@
         <v>42</v>
       </c>
       <c r="AJ367" t="s" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AK367" t="s" s="2">
         <v>54</v>
@@ -44637,13 +44634,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -44669,10 +44666,10 @@
         <v>384</v>
       </c>
       <c r="M368" t="s" s="2">
+        <v>1263</v>
+      </c>
+      <c r="N368" t="s" s="2">
         <v>1264</v>
-      </c>
-      <c r="N368" t="s" s="2">
-        <v>1265</v>
       </c>
       <c r="O368" s="2"/>
       <c r="P368" s="2"/>
@@ -44723,7 +44720,7 @@
         <v>35</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>36</v>
@@ -44740,13 +44737,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -44778,7 +44775,7 @@
         <v>390</v>
       </c>
       <c r="O369" t="s" s="2">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="P369" s="2"/>
       <c r="Q369" t="s" s="2">
@@ -44828,7 +44825,7 @@
         <v>35</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>36</v>
@@ -44845,13 +44842,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -44877,13 +44874,13 @@
         <v>417</v>
       </c>
       <c r="M370" t="s" s="2">
+        <v>1268</v>
+      </c>
+      <c r="N370" t="s" s="2">
         <v>1269</v>
       </c>
-      <c r="N370" t="s" s="2">
+      <c r="O370" t="s" s="2">
         <v>1270</v>
-      </c>
-      <c r="O370" t="s" s="2">
-        <v>1271</v>
       </c>
       <c r="P370" s="2"/>
       <c r="Q370" t="s" s="2">
@@ -44933,7 +44930,7 @@
         <v>35</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>36</v>
@@ -44950,13 +44947,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -45053,13 +45050,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45158,13 +45155,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -45190,13 +45187,13 @@
         <v>431</v>
       </c>
       <c r="M373" t="s" s="2">
+        <v>1274</v>
+      </c>
+      <c r="N373" t="s" s="2">
         <v>1275</v>
       </c>
-      <c r="N373" t="s" s="2">
+      <c r="O373" t="s" s="2">
         <v>1276</v>
-      </c>
-      <c r="O373" t="s" s="2">
-        <v>1277</v>
       </c>
       <c r="P373" s="2"/>
       <c r="Q373" t="s" s="2">
@@ -45246,16 +45243,16 @@
         <v>35</v>
       </c>
       <c r="AG373" t="s" s="2">
+        <v>1277</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
         <v>1278</v>
-      </c>
-      <c r="AH373" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI373" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ373" t="s" s="2">
-        <v>1279</v>
       </c>
       <c r="AK373" t="s" s="2">
         <v>54</v>
@@ -45263,13 +45260,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -45295,66 +45292,66 @@
         <v>431</v>
       </c>
       <c r="M374" t="s" s="2">
+        <v>1280</v>
+      </c>
+      <c r="N374" t="s" s="2">
         <v>1281</v>
       </c>
-      <c r="N374" t="s" s="2">
+      <c r="O374" t="s" s="2">
         <v>1282</v>
-      </c>
-      <c r="O374" t="s" s="2">
-        <v>1283</v>
       </c>
       <c r="P374" s="2"/>
       <c r="Q374" t="s" s="2">
         <v>35</v>
       </c>
       <c r="R374" t="s" s="2">
+        <v>1283</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG374" t="s" s="2">
         <v>1284</v>
       </c>
-      <c r="S374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF374" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AG374" t="s" s="2">
-        <v>1285</v>
-      </c>
       <c r="AH374" t="s" s="2">
         <v>36</v>
       </c>
@@ -45362,7 +45359,7 @@
         <v>42</v>
       </c>
       <c r="AJ374" t="s" s="2">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AK374" t="s" s="2">
         <v>54</v>
@@ -45370,13 +45367,13 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -45402,10 +45399,10 @@
         <v>431</v>
       </c>
       <c r="M375" t="s" s="2">
+        <v>1286</v>
+      </c>
+      <c r="N375" t="s" s="2">
         <v>1287</v>
-      </c>
-      <c r="N375" t="s" s="2">
-        <v>1288</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
@@ -45456,7 +45453,7 @@
         <v>35</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>36</v>
@@ -45473,13 +45470,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -45505,10 +45502,10 @@
         <v>431</v>
       </c>
       <c r="M376" t="s" s="2">
+        <v>1289</v>
+      </c>
+      <c r="N376" t="s" s="2">
         <v>1290</v>
-      </c>
-      <c r="N376" t="s" s="2">
-        <v>1291</v>
       </c>
       <c r="O376" s="2"/>
       <c r="P376" s="2"/>
@@ -45559,7 +45556,7 @@
         <v>35</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>36</v>
@@ -45576,13 +45573,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -45605,16 +45602,16 @@
         <v>35</v>
       </c>
       <c r="L377" t="s" s="2">
+        <v>1292</v>
+      </c>
+      <c r="M377" t="s" s="2">
         <v>1293</v>
       </c>
-      <c r="M377" t="s" s="2">
+      <c r="N377" t="s" s="2">
         <v>1294</v>
       </c>
-      <c r="N377" t="s" s="2">
+      <c r="O377" t="s" s="2">
         <v>1295</v>
-      </c>
-      <c r="O377" t="s" s="2">
-        <v>1296</v>
       </c>
       <c r="P377" s="2"/>
       <c r="Q377" t="s" s="2">
@@ -45664,7 +45661,7 @@
         <v>35</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>36</v>
@@ -45681,13 +45678,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -45713,13 +45710,13 @@
         <v>95</v>
       </c>
       <c r="M378" t="s" s="2">
+        <v>1297</v>
+      </c>
+      <c r="N378" t="s" s="2">
         <v>1298</v>
       </c>
-      <c r="N378" t="s" s="2">
+      <c r="O378" t="s" s="2">
         <v>1299</v>
-      </c>
-      <c r="O378" t="s" s="2">
-        <v>1300</v>
       </c>
       <c r="P378" s="2"/>
       <c r="Q378" t="s" s="2">
@@ -45769,7 +45766,7 @@
         <v>35</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>36</v>
@@ -45786,13 +45783,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45889,13 +45886,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -45994,13 +45991,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -46101,13 +46098,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -46133,10 +46130,10 @@
         <v>275</v>
       </c>
       <c r="M382" t="s" s="2">
+        <v>1304</v>
+      </c>
+      <c r="N382" t="s" s="2">
         <v>1305</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>1306</v>
       </c>
       <c r="O382" s="2"/>
       <c r="P382" s="2"/>
@@ -46167,7 +46164,7 @@
       </c>
       <c r="Z382" s="2"/>
       <c r="AA382" t="s" s="2">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AB382" t="s" s="2">
         <v>35</v>
@@ -46185,7 +46182,7 @@
         <v>35</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>36</v>
@@ -46202,17 +46199,17 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" t="s" s="2">
@@ -46231,13 +46228,13 @@
         <v>43</v>
       </c>
       <c r="L383" t="s" s="2">
+        <v>1309</v>
+      </c>
+      <c r="M383" t="s" s="2">
         <v>1310</v>
       </c>
-      <c r="M383" t="s" s="2">
+      <c r="N383" t="s" s="2">
         <v>1311</v>
-      </c>
-      <c r="N383" t="s" s="2">
-        <v>1312</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" s="2"/>
@@ -46267,7 +46264,7 @@
         <v>284</v>
       </c>
       <c r="Z383" t="s" s="2">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AA383" t="s" s="2">
         <v>373</v>
@@ -46288,7 +46285,7 @@
         <v>35</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>36</v>
@@ -46305,13 +46302,13 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -46337,13 +46334,13 @@
         <v>95</v>
       </c>
       <c r="M384" t="s" s="2">
+        <v>1314</v>
+      </c>
+      <c r="N384" t="s" s="2">
         <v>1315</v>
       </c>
-      <c r="N384" t="s" s="2">
+      <c r="O384" t="s" s="2">
         <v>1316</v>
-      </c>
-      <c r="O384" t="s" s="2">
-        <v>1317</v>
       </c>
       <c r="P384" s="2"/>
       <c r="Q384" t="s" s="2">
@@ -46393,7 +46390,7 @@
         <v>35</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>36</v>
@@ -46410,13 +46407,13 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -46513,13 +46510,13 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -46618,13 +46615,13 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46725,17 +46722,17 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" t="s" s="2">
@@ -46754,13 +46751,13 @@
         <v>43</v>
       </c>
       <c r="L388" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="M388" t="s" s="2">
         <v>1323</v>
       </c>
-      <c r="M388" t="s" s="2">
+      <c r="N388" t="s" s="2">
         <v>1324</v>
-      </c>
-      <c r="N388" t="s" s="2">
-        <v>1325</v>
       </c>
       <c r="O388" s="2"/>
       <c r="P388" s="2"/>
@@ -46791,7 +46788,7 @@
       </c>
       <c r="Z388" s="2"/>
       <c r="AA388" t="s" s="2">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AB388" t="s" s="2">
         <v>35</v>
@@ -46809,7 +46806,7 @@
         <v>35</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AH388" t="s" s="2">
         <v>36</v>
@@ -46826,13 +46823,13 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -46858,10 +46855,10 @@
         <v>275</v>
       </c>
       <c r="M389" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="N389" t="s" s="2">
         <v>1328</v>
-      </c>
-      <c r="N389" t="s" s="2">
-        <v>1329</v>
       </c>
       <c r="O389" s="2"/>
       <c r="P389" s="2"/>
@@ -46891,11 +46888,11 @@
         <v>284</v>
       </c>
       <c r="Z389" t="s" s="2">
+        <v>1329</v>
+      </c>
+      <c r="AA389" t="s" s="2">
         <v>1330</v>
       </c>
-      <c r="AA389" t="s" s="2">
-        <v>1331</v>
-      </c>
       <c r="AB389" t="s" s="2">
         <v>35</v>
       </c>
@@ -46912,7 +46909,7 @@
         <v>35</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>36</v>
@@ -46929,13 +46926,13 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46961,13 +46958,13 @@
         <v>426</v>
       </c>
       <c r="M390" t="s" s="2">
+        <v>1332</v>
+      </c>
+      <c r="N390" t="s" s="2">
         <v>1333</v>
       </c>
-      <c r="N390" t="s" s="2">
+      <c r="O390" t="s" s="2">
         <v>1334</v>
-      </c>
-      <c r="O390" t="s" s="2">
-        <v>1335</v>
       </c>
       <c r="P390" s="2"/>
       <c r="Q390" t="s" s="2">
@@ -47017,7 +47014,7 @@
         <v>35</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>36</v>
@@ -47034,13 +47031,13 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -47066,16 +47063,16 @@
         <v>275</v>
       </c>
       <c r="M391" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="N391" t="s" s="2">
         <v>1337</v>
       </c>
-      <c r="N391" t="s" s="2">
+      <c r="O391" t="s" s="2">
         <v>1338</v>
       </c>
-      <c r="O391" t="s" s="2">
+      <c r="P391" t="s" s="2">
         <v>1339</v>
-      </c>
-      <c r="P391" t="s" s="2">
-        <v>1340</v>
       </c>
       <c r="Q391" t="s" s="2">
         <v>35</v>
@@ -47103,11 +47100,11 @@
         <v>278</v>
       </c>
       <c r="Z391" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="AA391" t="s" s="2">
         <v>1341</v>
       </c>
-      <c r="AA391" t="s" s="2">
-        <v>1342</v>
-      </c>
       <c r="AB391" t="s" s="2">
         <v>35</v>
       </c>
@@ -47124,7 +47121,7 @@
         <v>35</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>36</v>
@@ -47141,13 +47138,13 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -47173,10 +47170,10 @@
         <v>275</v>
       </c>
       <c r="M392" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="N392" t="s" s="2">
         <v>1344</v>
-      </c>
-      <c r="N392" t="s" s="2">
-        <v>1345</v>
       </c>
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
@@ -47206,11 +47203,11 @@
         <v>284</v>
       </c>
       <c r="Z392" t="s" s="2">
+        <v>1345</v>
+      </c>
+      <c r="AA392" t="s" s="2">
         <v>1346</v>
       </c>
-      <c r="AA392" t="s" s="2">
-        <v>1347</v>
-      </c>
       <c r="AB392" t="s" s="2">
         <v>35</v>
       </c>
@@ -47227,7 +47224,7 @@
         <v>35</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>36</v>
@@ -47244,13 +47241,13 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -47276,13 +47273,13 @@
         <v>275</v>
       </c>
       <c r="M393" t="s" s="2">
+        <v>1348</v>
+      </c>
+      <c r="N393" t="s" s="2">
         <v>1349</v>
       </c>
-      <c r="N393" t="s" s="2">
+      <c r="O393" t="s" s="2">
         <v>1350</v>
-      </c>
-      <c r="O393" t="s" s="2">
-        <v>1351</v>
       </c>
       <c r="P393" s="2"/>
       <c r="Q393" t="s" s="2">
@@ -47311,11 +47308,11 @@
         <v>284</v>
       </c>
       <c r="Z393" t="s" s="2">
+        <v>1351</v>
+      </c>
+      <c r="AA393" t="s" s="2">
         <v>1352</v>
       </c>
-      <c r="AA393" t="s" s="2">
-        <v>1353</v>
-      </c>
       <c r="AB393" t="s" s="2">
         <v>35</v>
       </c>
@@ -47332,7 +47329,7 @@
         <v>35</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>36</v>
@@ -47349,13 +47346,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -47381,13 +47378,13 @@
         <v>95</v>
       </c>
       <c r="M394" t="s" s="2">
+        <v>1354</v>
+      </c>
+      <c r="N394" t="s" s="2">
         <v>1355</v>
       </c>
-      <c r="N394" t="s" s="2">
+      <c r="O394" t="s" s="2">
         <v>1356</v>
-      </c>
-      <c r="O394" t="s" s="2">
-        <v>1357</v>
       </c>
       <c r="P394" s="2"/>
       <c r="Q394" t="s" s="2">
@@ -47437,7 +47434,7 @@
         <v>35</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>36</v>
@@ -47454,13 +47451,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -47557,13 +47554,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -47662,13 +47659,13 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -47769,13 +47766,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -47801,10 +47798,10 @@
         <v>71</v>
       </c>
       <c r="M398" t="s" s="2">
+        <v>1361</v>
+      </c>
+      <c r="N398" t="s" s="2">
         <v>1362</v>
-      </c>
-      <c r="N398" t="s" s="2">
-        <v>1363</v>
       </c>
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
@@ -47855,7 +47852,7 @@
         <v>35</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>36</v>
@@ -47872,13 +47869,13 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -47901,13 +47898,13 @@
         <v>35</v>
       </c>
       <c r="L399" t="s" s="2">
+        <v>1364</v>
+      </c>
+      <c r="M399" t="s" s="2">
         <v>1365</v>
       </c>
-      <c r="M399" t="s" s="2">
+      <c r="N399" t="s" s="2">
         <v>1366</v>
-      </c>
-      <c r="N399" t="s" s="2">
-        <v>1367</v>
       </c>
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
@@ -47958,7 +47955,7 @@
         <v>35</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>36</v>
@@ -47975,13 +47972,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -48007,10 +48004,10 @@
         <v>275</v>
       </c>
       <c r="M400" t="s" s="2">
+        <v>1368</v>
+      </c>
+      <c r="N400" t="s" s="2">
         <v>1369</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>1370</v>
       </c>
       <c r="O400" s="2"/>
       <c r="P400" s="2"/>
@@ -48040,11 +48037,11 @@
         <v>284</v>
       </c>
       <c r="Z400" t="s" s="2">
+        <v>1370</v>
+      </c>
+      <c r="AA400" t="s" s="2">
         <v>1371</v>
       </c>
-      <c r="AA400" t="s" s="2">
-        <v>1372</v>
-      </c>
       <c r="AB400" t="s" s="2">
         <v>35</v>
       </c>
@@ -48061,7 +48058,7 @@
         <v>35</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>36</v>
@@ -48078,13 +48075,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -48110,10 +48107,10 @@
         <v>275</v>
       </c>
       <c r="M401" t="s" s="2">
+        <v>1373</v>
+      </c>
+      <c r="N401" t="s" s="2">
         <v>1374</v>
-      </c>
-      <c r="N401" t="s" s="2">
-        <v>1375</v>
       </c>
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
@@ -48143,11 +48140,11 @@
         <v>278</v>
       </c>
       <c r="Z401" t="s" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AA401" t="s" s="2">
         <v>1376</v>
       </c>
-      <c r="AA401" t="s" s="2">
-        <v>1377</v>
-      </c>
       <c r="AB401" t="s" s="2">
         <v>35</v>
       </c>
@@ -48164,7 +48161,7 @@
         <v>35</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>36</v>
@@ -48181,13 +48178,13 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -48210,13 +48207,13 @@
         <v>35</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="M402" t="s" s="2">
+        <v>1378</v>
+      </c>
+      <c r="N402" t="s" s="2">
         <v>1379</v>
-      </c>
-      <c r="N402" t="s" s="2">
-        <v>1380</v>
       </c>
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
@@ -48267,7 +48264,7 @@
         <v>35</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>36</v>
@@ -48284,13 +48281,13 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -48316,10 +48313,10 @@
         <v>275</v>
       </c>
       <c r="M403" t="s" s="2">
+        <v>1381</v>
+      </c>
+      <c r="N403" t="s" s="2">
         <v>1382</v>
-      </c>
-      <c r="N403" t="s" s="2">
-        <v>1383</v>
       </c>
       <c r="O403" s="2"/>
       <c r="P403" s="2"/>
@@ -48349,11 +48346,11 @@
         <v>278</v>
       </c>
       <c r="Z403" t="s" s="2">
+        <v>1383</v>
+      </c>
+      <c r="AA403" t="s" s="2">
         <v>1384</v>
       </c>
-      <c r="AA403" t="s" s="2">
-        <v>1385</v>
-      </c>
       <c r="AB403" t="s" s="2">
         <v>35</v>
       </c>
@@ -48370,7 +48367,7 @@
         <v>35</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>36</v>
@@ -48387,13 +48384,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -48419,13 +48416,13 @@
         <v>95</v>
       </c>
       <c r="M404" t="s" s="2">
+        <v>1386</v>
+      </c>
+      <c r="N404" t="s" s="2">
         <v>1387</v>
       </c>
-      <c r="N404" t="s" s="2">
+      <c r="O404" t="s" s="2">
         <v>1388</v>
-      </c>
-      <c r="O404" t="s" s="2">
-        <v>1389</v>
       </c>
       <c r="P404" s="2"/>
       <c r="Q404" t="s" s="2">
@@ -48475,7 +48472,7 @@
         <v>35</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>36</v>
@@ -48492,13 +48489,13 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -48595,13 +48592,13 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -48700,13 +48697,13 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48807,13 +48804,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -48836,13 +48833,13 @@
         <v>35</v>
       </c>
       <c r="L408" t="s" s="2">
+        <v>1393</v>
+      </c>
+      <c r="M408" t="s" s="2">
         <v>1394</v>
       </c>
-      <c r="M408" t="s" s="2">
+      <c r="N408" t="s" s="2">
         <v>1395</v>
-      </c>
-      <c r="N408" t="s" s="2">
-        <v>1396</v>
       </c>
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
@@ -48893,7 +48890,7 @@
         <v>35</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>42</v>
@@ -48910,13 +48907,13 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -48942,13 +48939,13 @@
         <v>62</v>
       </c>
       <c r="M409" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="N409" t="s" s="2">
         <v>1398</v>
       </c>
-      <c r="N409" t="s" s="2">
+      <c r="O409" t="s" s="2">
         <v>1399</v>
-      </c>
-      <c r="O409" t="s" s="2">
-        <v>1400</v>
       </c>
       <c r="P409" s="2"/>
       <c r="Q409" t="s" s="2">
@@ -48977,11 +48974,11 @@
         <v>66</v>
       </c>
       <c r="Z409" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AA409" t="s" s="2">
         <v>1401</v>
       </c>
-      <c r="AA409" t="s" s="2">
-        <v>1402</v>
-      </c>
       <c r="AB409" t="s" s="2">
         <v>35</v>
       </c>
@@ -48998,7 +48995,7 @@
         <v>35</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>36</v>
@@ -49015,13 +49012,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -49047,13 +49044,13 @@
         <v>275</v>
       </c>
       <c r="M410" t="s" s="2">
+        <v>1403</v>
+      </c>
+      <c r="N410" t="s" s="2">
         <v>1404</v>
       </c>
-      <c r="N410" t="s" s="2">
+      <c r="O410" t="s" s="2">
         <v>1405</v>
-      </c>
-      <c r="O410" t="s" s="2">
-        <v>1406</v>
       </c>
       <c r="P410" s="2"/>
       <c r="Q410" t="s" s="2">
@@ -49082,11 +49079,11 @@
         <v>278</v>
       </c>
       <c r="Z410" t="s" s="2">
+        <v>1406</v>
+      </c>
+      <c r="AA410" t="s" s="2">
         <v>1407</v>
       </c>
-      <c r="AA410" t="s" s="2">
-        <v>1408</v>
-      </c>
       <c r="AB410" t="s" s="2">
         <v>35</v>
       </c>
@@ -49103,7 +49100,7 @@
         <v>35</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>36</v>
@@ -49120,13 +49117,13 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49152,10 +49149,10 @@
         <v>417</v>
       </c>
       <c r="M411" t="s" s="2">
+        <v>1409</v>
+      </c>
+      <c r="N411" t="s" s="2">
         <v>1410</v>
-      </c>
-      <c r="N411" t="s" s="2">
-        <v>1411</v>
       </c>
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
@@ -49206,7 +49203,7 @@
         <v>35</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>36</v>
@@ -49223,7 +49220,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>629</v>
@@ -49255,10 +49252,10 @@
         <v>38</v>
       </c>
       <c r="M412" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="N412" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="N412" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
@@ -49326,7 +49323,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>633</v>
@@ -49429,7 +49426,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>634</v>
@@ -49532,7 +49529,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>636</v>
@@ -49578,7 +49575,7 @@
       </c>
       <c r="R415" s="2"/>
       <c r="S415" t="s" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="T415" t="s" s="2">
         <v>35</v>
@@ -49637,7 +49634,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>640</v>
@@ -49669,7 +49666,7 @@
         <v>101</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="N416" t="s" s="2">
         <v>642</v>
@@ -49740,7 +49737,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>629</v>
@@ -49772,10 +49769,10 @@
         <v>38</v>
       </c>
       <c r="M417" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="N417" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N417" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
@@ -49843,7 +49840,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>633</v>
@@ -49946,7 +49943,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>634</v>
@@ -50049,7 +50046,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>636</v>
@@ -50095,7 +50092,7 @@
       </c>
       <c r="R420" s="2"/>
       <c r="S420" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T420" t="s" s="2">
         <v>35</v>
@@ -50154,7 +50151,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>640</v>
@@ -50186,7 +50183,7 @@
         <v>62</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N421" t="s" s="2">
         <v>642</v>
@@ -50220,7 +50217,7 @@
       </c>
       <c r="Z421" s="2"/>
       <c r="AA421" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AB421" t="s" s="2">
         <v>35</v>
@@ -50255,7 +50252,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>629</v>
@@ -50287,10 +50284,10 @@
         <v>38</v>
       </c>
       <c r="M422" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N422" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="N422" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
@@ -50358,7 +50355,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>633</v>
@@ -50461,7 +50458,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>634</v>
@@ -50564,7 +50561,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>636</v>
@@ -50610,7 +50607,7 @@
       </c>
       <c r="R425" s="2"/>
       <c r="S425" t="s" s="2">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="T425" t="s" s="2">
         <v>35</v>
@@ -50669,7 +50666,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>640</v>
@@ -50701,7 +50698,7 @@
         <v>62</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="N426" t="s" s="2">
         <v>642</v>
@@ -50735,7 +50732,7 @@
       </c>
       <c r="Z426" s="2"/>
       <c r="AA426" t="s" s="2">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="AB426" t="s" s="2">
         <v>35</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T10:24:09-04:00</t>
+    <t>2023-07-24T11:34:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
